--- a/Data/2022-07-28_Morphology_Assay_effectscore.xlsx
+++ b/Data/2022-07-28_Morphology_Assay_effectscore.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,27 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -446,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G174"/>
+  <dimension ref="A1:F163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,27 +434,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Body length (µm)</t>
+        </is>
+      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Body length (µm)</t>
+          <t>Heart Rate (BPM)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Heart Rate (BPM)</t>
+          <t>Ejection fraction (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Ejection fraction (%)</t>
+          <t>Number ISV (Count)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Number ISV (Count)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>ISV area (µm^2)</t>
         </is>
@@ -484,347 +463,309 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>GSK-369796_1C03</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>1</v>
+          <t>Papaverine_1C02</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6.351278665886031e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>2.200534273599261e-06</v>
+        <v>-0.003214084878331812</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1029282215518136</v>
+        <v>0.2303091885411128</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1461077697863718</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04959007769354219</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.969704576934258e-05</v>
+        <v>-0.00147641489931722</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Daclatasvir_1C04</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>1</v>
+          <t>GSK-369796_1C03</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2.200534273599261e-06</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.464117891943035e-05</v>
+        <v>-0.1029282215518136</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1998532880918032</v>
+        <v>0.1461077697863718</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.589795097812832e-05</v>
+        <v>-0.04959007769354219</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-0.005524063265728762</v>
+        <v>1.969704576934258e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Lonafarnib_1C05</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
+          <t>Daclatasvir_1C04</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-1.464117891943035e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>3.318064084942221e-05</v>
+        <v>-0.1998532880918032</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2459950946680637</v>
+        <v>-8.589795097812832e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0315667173670816</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-7.209079436631617e-06</v>
+        <v>-0.005524063265728762</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Itraconazole_1C06</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>1</v>
+          <t>Lonafarnib_1C05</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3.318064084942221e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.003953451482799325</v>
+        <v>-0.2459950946680637</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4772203938558363</v>
+        <v>0.0315667173670816</v>
       </c>
       <c r="E5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-0.004589563157104963</v>
+        <v>-7.209079436631617e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>GSK 983_1C07</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>1</v>
+          <t>Itraconazole_1C06</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.003953451482799325</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0002930013602114053</v>
+        <v>-0.4772203938558363</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0851141214820873</v>
+        <v>-0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002966079445203709</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-0.001127363084151604</v>
+        <v>-0.004589563157104963</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Tioguanine_1C08</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>1</v>
+          <t>GSK 983_1C07</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.0002930013602114053</v>
       </c>
       <c r="C7" t="n">
-        <v>1.577913880326411e-06</v>
+        <v>-0.0851141214820873</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.006954440422677441</v>
+        <v>0.002966079445203709</v>
       </c>
       <c r="E7" t="n">
-        <v>7.785964879593859e-05</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-0.001526820958667483</v>
+        <v>-0.001127363084151604</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Tomivosertib_1C09</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>1</v>
+          <t>Tioguanine_1C08</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.577913880326411e-06</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002436687749447058</v>
+        <v>-0.006954440422677441</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0002655784546460025</v>
+        <v>7.785964879593859e-05</v>
       </c>
       <c r="E8" t="n">
-        <v>0.004408966177704377</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-0.03215523342908799</v>
+        <v>-0.001526820958667483</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>LY 2228820_1C10</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>1</v>
+          <t>Tomivosertib_1C09</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0002436687749447058</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0003004168814612558</v>
+        <v>0.0002655784546460025</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0001839677460891907</v>
+        <v>0.004408966177704377</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02537956532725368</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.0001743350828268861</v>
+        <v>-0.03215523342908799</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Control</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>1</v>
+          <t>LY 2228820_1C10</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0003004168814612558</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>-0.0001839677460891907</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.02537956532725368</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
+        <v>0.0001743350828268861</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Tigecycline_1C11</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>1</v>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005641468900839692</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.00301223923571967</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.09438791335410934</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.03296409962568436</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Digoxin_1D02</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>1</v>
+          <t>Tigecycline_1C11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.005641468900839692</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.005996105189252534</v>
+        <v>-0.00301223923571967</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.004603676844372592</v>
+        <v>0.09438791335410934</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.002154757055332335</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001663108271892801</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.04704358560395638</v>
+        <v>-0.03296409962568436</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Amodiaquine_1D03</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>1</v>
+          <t>Digoxin_1D02</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.005996105189252534</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0379926172570034</v>
+        <v>-0.004603676844372592</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1532228349029746</v>
+        <v>-0.002154757055332335</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.05035940343480218</v>
+        <v>0.001663108271892801</v>
       </c>
       <c r="F13" t="n">
-        <v>0.009628619923261771</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.002966685379628594</v>
+        <v>0.04704358560395638</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
+          <t>Amodiaquine_1D03</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.0379926172570034</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.1532228349029746</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.05035940343480218</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.009628619923261771</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.002966685379628594</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
           <t>Astemizole_1D04</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-4.805178038106492</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-6.753907823106802</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-26.72886742121627</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.08314104325850689</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-1.564286330827209</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="n">
-        <v>0.5</v>
+      <c r="B15" t="n">
+        <v>-4.34894357789545</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.295861122056816</v>
+        <v>-5.132430014571145</v>
       </c>
       <c r="D15" t="n">
-        <v>-15.48319337316601</v>
+        <v>-20.54632860343208</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.3519236322879759</v>
+        <v>-0.1355649774333714</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1173198967581043</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.1246456675144074</v>
+        <v>-1.240162719835195</v>
       </c>
     </row>
     <row r="16">
@@ -833,22 +774,19 @@
           <t>Halofantrine_1D05</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
-        <v>1</v>
+      <c r="B16" t="n">
+        <v>-0.0003667916158560999</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0003667916158560999</v>
+        <v>-2.692381431445398</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.692381431445398</v>
+        <v>0.02419037357791931</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02419037357791931</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
         <v>4.578482548245083e-05</v>
       </c>
     </row>
@@ -858,22 +796,19 @@
           <t>Ravuconazole_1D06</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
-        <v>1</v>
+      <c r="B17" t="n">
+        <v>-0.06237366476896477</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.06237366476896477</v>
+        <v>-0.01436768267344619</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.01436768267344619</v>
+        <v>0.1313862464732009</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1313862464732009</v>
+        <v>0.001085693622423033</v>
       </c>
       <c r="F17" t="n">
-        <v>0.001085693622423033</v>
-      </c>
-      <c r="G17" t="n">
         <v>-0.04907260001151499</v>
       </c>
     </row>
@@ -883,22 +818,19 @@
           <t>Tizoxanide_1D07</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
-        <v>1</v>
+      <c r="B18" t="n">
+        <v>-0.00339206329228403</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.00339206329228403</v>
+        <v>-0.005416905317601198</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.005416905317601198</v>
+        <v>0.004084956507248951</v>
       </c>
       <c r="E18" t="n">
-        <v>0.004084956507248951</v>
+        <v>0.004659522164846335</v>
       </c>
       <c r="F18" t="n">
-        <v>0.004659522164846335</v>
-      </c>
-      <c r="G18" t="n">
         <v>-0.0005346930901827927</v>
       </c>
     </row>
@@ -908,22 +840,19 @@
           <t>Valproic Acid_1D08</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
-        <v>1</v>
+      <c r="B19" t="n">
+        <v>-0.002357970999408355</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.002357970999408355</v>
+        <v>-0.002030557197935585</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.002030557197935585</v>
+        <v>-0.0004578715018552468</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0004578715018552468</v>
+        <v>0.02229725888706594</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02229725888706594</v>
-      </c>
-      <c r="G19" t="n">
         <v>0.006872680592790962</v>
       </c>
     </row>
@@ -933,22 +862,19 @@
           <t>Simeprevir_1D09</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
-        <v>1</v>
+      <c r="B20" t="n">
+        <v>-0.01941084193931476</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.01941084193931476</v>
+        <v>-0.0967712337696931</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.0967712337696931</v>
+        <v>-0.01939864673158889</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.01939864673158889</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
         <v>0.01913800216014023</v>
       </c>
     </row>
@@ -958,22 +884,19 @@
           <t>Favipiravir_1D10</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
-        <v>1</v>
+      <c r="B21" t="n">
+        <v>-0.03659217497140475</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.03659217497140475</v>
+        <v>-0.02017727514567503</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.02017727514567503</v>
+        <v>-0.001631788407478082</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.001631788407478082</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
         <v>-0.04644289923392446</v>
       </c>
     </row>
@@ -983,22 +906,19 @@
           <t>Vidofludimus_1D11</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
-        <v>1</v>
+      <c r="B22" t="n">
+        <v>-0.0001150327883063065</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.0001150327883063065</v>
+        <v>-0.0009368315167149217</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.0009368315167149217</v>
+        <v>-0.009120795717753231</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.009120795717753231</v>
+        <v>7.646318016412981e-05</v>
       </c>
       <c r="F22" t="n">
-        <v>7.646318016412981e-05</v>
-      </c>
-      <c r="G22" t="n">
         <v>0.0002184205991236403</v>
       </c>
     </row>
@@ -1008,22 +928,19 @@
           <t>Hydroxyprogesterone_1E02</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n">
-        <v>1</v>
+      <c r="B23" t="n">
+        <v>0.02389034354594259</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02389034354594259</v>
+        <v>-0.001639272681314765</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.001639272681314765</v>
+        <v>-0.4086497497170101</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.4086497497170101</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
         <v>0.003224562593026139</v>
       </c>
     </row>
@@ -1033,22 +950,19 @@
           <t>Nafamostat_1E03</t>
         </is>
       </c>
-      <c r="B24" s="1" t="n">
-        <v>1</v>
+      <c r="B24" t="n">
+        <v>0.0003138602456842556</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0003138602456842556</v>
+        <v>-4.388935522822388e-05</v>
       </c>
       <c r="D24" t="n">
-        <v>-4.388935522822388e-05</v>
+        <v>-0.4905725349161852</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.4905725349161852</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
         <v>-0.00484836508583452</v>
       </c>
     </row>
@@ -1058,22 +972,19 @@
           <t>Amuvatinib_1E04</t>
         </is>
       </c>
-      <c r="B25" s="1" t="n">
-        <v>1</v>
+      <c r="B25" t="n">
+        <v>0.0001506751064552752</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0001506751064552752</v>
+        <v>-0.0003937476611558031</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.0003937476611558031</v>
+        <v>-1.225197534748645</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.225197534748645</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
         <v>4.268801388129541e-06</v>
       </c>
     </row>
@@ -1083,22 +994,19 @@
           <t>Doxycycline_1E05</t>
         </is>
       </c>
-      <c r="B26" s="1" t="n">
-        <v>1</v>
+      <c r="B26" t="n">
+        <v>-0.03591504325865693</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.03591504325865693</v>
+        <v>-0.00669394246499568</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.00669394246499568</v>
+        <v>-0.01596041633731624</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.01596041633731624</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
         <v>-1.169164921425752e-06</v>
       </c>
     </row>
@@ -1108,22 +1016,19 @@
           <t>Emetine_1E06</t>
         </is>
       </c>
-      <c r="B27" s="1" t="n">
-        <v>1</v>
+      <c r="B27" t="n">
+        <v>5.723179985005626e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>5.723179985005626e-05</v>
+        <v>-4.285000633992069e-05</v>
       </c>
       <c r="D27" t="n">
-        <v>-4.285000633992069e-05</v>
+        <v>-0.7567637645052765</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.7567637645052765</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
         <v>-0.001927991794815082</v>
       </c>
     </row>
@@ -1133,22 +1038,19 @@
           <t>Triparanol_1E07</t>
         </is>
       </c>
-      <c r="B28" s="1" t="n">
-        <v>1</v>
+      <c r="B28" t="n">
+        <v>0.0003762377407612107</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0003762377407612107</v>
+        <v>0.002150184843156285</v>
       </c>
       <c r="D28" t="n">
-        <v>0.002150184843156285</v>
+        <v>-0.5264871434165613</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.5264871434165613</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
         <v>2.416795139465171e-05</v>
       </c>
     </row>
@@ -1158,22 +1060,19 @@
           <t>Clomipramine_1E08</t>
         </is>
       </c>
-      <c r="B29" s="1" t="n">
-        <v>1</v>
+      <c r="B29" t="n">
+        <v>-0.04310562850583205</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.04310562850583205</v>
+        <v>0.002013899311649085</v>
       </c>
       <c r="D29" t="n">
-        <v>0.002013899311649085</v>
+        <v>-0.229129530434217</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.229129530434217</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
         <v>0.0164551318236692</v>
       </c>
     </row>
@@ -1183,22 +1082,19 @@
           <t>Sofosbuvir_1E09</t>
         </is>
       </c>
-      <c r="B30" s="1" t="n">
-        <v>1</v>
+      <c r="B30" t="n">
+        <v>-0</v>
       </c>
       <c r="C30" t="n">
-        <v>-0</v>
+        <v>9.128907744236589e-05</v>
       </c>
       <c r="D30" t="n">
-        <v>9.128907744236589e-05</v>
+        <v>-0.6678630382845386</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.6678630382845386</v>
+        <v>-0.005787502626787649</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.005787502626787649</v>
-      </c>
-      <c r="G30" t="n">
         <v>5.217018199605947e-05</v>
       </c>
     </row>
@@ -1208,22 +1104,19 @@
           <t>Camostat_1E10</t>
         </is>
       </c>
-      <c r="B31" s="1" t="n">
-        <v>1</v>
+      <c r="B31" t="n">
+        <v>5.3454145654415e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>5.3454145654415e-05</v>
+        <v>0.01167246060379187</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01167246060379187</v>
+        <v>-0.8236633919679754</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.8236633919679754</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
         <v>-0.001717353895277988</v>
       </c>
     </row>
@@ -1233,22 +1126,19 @@
           <t>SMN-C3_1E11</t>
         </is>
       </c>
-      <c r="B32" s="1" t="n">
-        <v>1</v>
+      <c r="B32" t="n">
+        <v>1.229087601990649e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>1.229087601990649e-05</v>
+        <v>0.0004496267260369959</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0004496267260369959</v>
+        <v>-0.1372532394243413</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.1372532394243413</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
         <v>-0.0002529950486214143</v>
       </c>
     </row>
@@ -1258,22 +1148,19 @@
           <t>Valsartan_1F02</t>
         </is>
       </c>
-      <c r="B33" s="1" t="n">
-        <v>1</v>
+      <c r="B33" t="n">
+        <v>0.0005800922007179196</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0005800922007179196</v>
+        <v>-0.0007816448210068121</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.0007816448210068121</v>
+        <v>-0.4636104928981846</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.4636104928981846</v>
+        <v>-0.02133725242412767</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.02133725242412767</v>
-      </c>
-      <c r="G33" t="n">
         <v>-0.07858729655225093</v>
       </c>
     </row>
@@ -1283,22 +1170,19 @@
           <t>Amiodarone_1F03</t>
         </is>
       </c>
-      <c r="B34" s="1" t="n">
-        <v>1</v>
+      <c r="B34" t="n">
+        <v>-0.01514975985258695</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.01514975985258695</v>
+        <v>-1.002114249705661</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.002114249705661</v>
+        <v>-0.09982699416992878</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.09982699416992878</v>
+        <v>-0.07549690636744349</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.07549690636744349</v>
-      </c>
-      <c r="G34" t="n">
         <v>-0.190402297288812</v>
       </c>
     </row>
@@ -1308,22 +1192,19 @@
           <t>Cyclosporine_1F04</t>
         </is>
       </c>
-      <c r="B35" s="1" t="n">
-        <v>1</v>
+      <c r="B35" t="n">
+        <v>-0.04328827974992478</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.04328827974992478</v>
+        <v>-0.180544376781798</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.180544376781798</v>
+        <v>-0.004304182474924902</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.004304182474924902</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
         <v>-0.08748778056039846</v>
       </c>
     </row>
@@ -1333,22 +1214,19 @@
           <t>Ivermectin_1F05</t>
         </is>
       </c>
-      <c r="B36" s="1" t="n">
-        <v>1</v>
+      <c r="B36" t="n">
+        <v>-1.120906725823226</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.120906725823226</v>
+        <v>-2.262194082803012</v>
       </c>
       <c r="D36" t="n">
-        <v>-2.262194082803012</v>
+        <v>0.0006246551286695553</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0006246551286695553</v>
+        <v>-0.02880035914937033</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.02880035914937033</v>
-      </c>
-      <c r="G36" t="n">
         <v>-0.579319004448991</v>
       </c>
     </row>
@@ -1358,22 +1236,19 @@
           <t>Indomethacin_1F06</t>
         </is>
       </c>
-      <c r="B37" s="1" t="n">
-        <v>1</v>
+      <c r="B37" t="n">
+        <v>-0.01450796300419979</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.01450796300419979</v>
+        <v>5.01542702952109e-06</v>
       </c>
       <c r="D37" t="n">
-        <v>5.01542702952109e-06</v>
+        <v>-0.03687313954323811</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.03687313954323811</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
         <v>-0.01255215988740369</v>
       </c>
     </row>
@@ -1383,22 +1258,19 @@
           <t>Captopril_1F07</t>
         </is>
       </c>
-      <c r="B38" s="1" t="n">
-        <v>1</v>
+      <c r="B38" t="n">
+        <v>-0.01109545510318338</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.01109545510318338</v>
+        <v>0.0001483007569225562</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0001483007569225562</v>
+        <v>-0.0228696880044606</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.0228696880044606</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
         <v>-0.09808765717504088</v>
       </c>
     </row>
@@ -1408,3369 +1280,2751 @@
           <t>Sorafenib_1F09</t>
         </is>
       </c>
-      <c r="B39" s="1" t="n">
-        <v>1</v>
+      <c r="B39" t="n">
+        <v>-0.4359520236811004</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.503637936586443</v>
+        <v>-0.9693952217188088</v>
       </c>
       <c r="D39" t="n">
-        <v>-1.583730584511327</v>
+        <v>-4.699782238209695</v>
       </c>
       <c r="E39" t="n">
-        <v>-6.631458249289855</v>
+        <v>-64.77831709713615</v>
       </c>
       <c r="F39" t="n">
-        <v>-84.33020784426625</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-8.038214187911732</v>
+        <v>-6.200240599757466</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n"/>
-      <c r="B40" s="1" t="n">
-        <v>0.5</v>
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>ABT 239_1F10</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>6.016818013331218e-06</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.03570913020151389</v>
+        <v>-0.9478904068602846</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.01586598126389473</v>
+        <v>-0.002623762578274639</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0006108210053495166</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.9328289469397607</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-0.5851276125539412</v>
+        <v>-0.01091572925508376</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ABT 239_1F10</t>
-        </is>
-      </c>
-      <c r="B41" s="1" t="n">
-        <v>1</v>
+          <t>Hydroxychloroquine_1F11</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.0005169246754279981</v>
       </c>
       <c r="C41" t="n">
-        <v>6.016818013331218e-06</v>
+        <v>-0.005389984834633879</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.9478904068602846</v>
+        <v>-0.4050445463171523</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.002623762578274639</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-0.01091572925508376</v>
+        <v>-0.4567536054292628</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Hydroxychloroquine_1F11</t>
-        </is>
-      </c>
-      <c r="B42" s="1" t="n">
-        <v>1</v>
+          <t>Ribavirin_1F08</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.02187896013601434</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.0005169246754279981</v>
+        <v>-0.08224747671292022</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.005389984834633879</v>
+        <v>-0.06574272840602731</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.4050445463171523</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-0.4567536054292628</v>
+        <v>-0.3790928586962699</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Ribavirin_1F08</t>
-        </is>
-      </c>
-      <c r="B43" s="1" t="n">
-        <v>1</v>
+          <t>Benztropine_1G02</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.005883849689079147</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.02187896013601434</v>
+        <v>-1.517257453699393</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.08224747671292022</v>
+        <v>-0.00045968098338258</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.06574272840602731</v>
+        <v>-7.030674111154705e-05</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-0.3790928586962699</v>
+        <v>-0.001898162568597859</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Benztropine_1G02</t>
-        </is>
-      </c>
-      <c r="B44" s="1" t="n">
-        <v>1</v>
+          <t>Manidipine_1G03</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>-0.1613901825926837</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.005883849689079147</v>
+        <v>-15.01918122488402</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.517257453699393</v>
+        <v>-1.477558935095184</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.00045968098338258</v>
+        <v>-0.02145177457174767</v>
       </c>
       <c r="F44" t="n">
-        <v>-7.030674111154705e-05</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-0.001898162568597859</v>
+        <v>-0.1959119854934394</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Manidipine_1G03</t>
-        </is>
-      </c>
-      <c r="B45" s="1" t="n">
-        <v>1</v>
+          <t>Almitrine_1G04</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.4802453652524255</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.1697183087645942</v>
+        <v>-0.4496534731494342</v>
       </c>
       <c r="D45" t="n">
-        <v>-20.20959463716347</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>-2.427474036223909</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.0130872499259546</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-0.320701609963661</v>
+        <v>-0.001977278841931089</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n"/>
-      <c r="B46" s="1" t="n">
-        <v>0.5</v>
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Nitazoxanide_1G05</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.00659092269117545</v>
+        <v>-1.736700613229168</v>
       </c>
       <c r="D46" t="n">
-        <v>-7.305857677697934</v>
+        <v>-0.005654215272489442</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.03037448160554494</v>
+        <v>0.0003154073792445307</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-0.001258738186989201</v>
+        <v>-0.06895898690025935</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Almitrine_1G04</t>
-        </is>
-      </c>
-      <c r="B47" s="1" t="n">
-        <v>1</v>
+          <t>MK-2206_1G06</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.04089697922486538</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.4802453652524255</v>
+        <v>-0.1059451987224035</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.4496534731494342</v>
+        <v>-0.0001391653803714053</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>-0.01177387445386042</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-0.001977278841931089</v>
+        <v>-3.020852179675095e-05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Nitazoxanide_1G05</t>
-        </is>
-      </c>
-      <c r="B48" s="1" t="n">
-        <v>1</v>
+          <t>Terconazole_1G07</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>-0.0001233889085577555</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>-0.8379202826846701</v>
       </c>
       <c r="D48" t="n">
-        <v>-1.736700613229168</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.005654215272489442</v>
+        <v>-8.335717964392144e-05</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0003154073792445307</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-0.06895898690025935</v>
+        <v>-0.04184384696128613</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>MK-2206_1G06</t>
-        </is>
-      </c>
-      <c r="B49" s="1" t="n">
-        <v>1</v>
+          <t>Midostaurin_1G08</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.2080971257454299</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.04089697922486538</v>
+        <v>-2.615387061767509</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.1059451987224035</v>
+        <v>-0.01647736270136337</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.0001391653803714053</v>
+        <v>-0.03098878945192113</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.01177387445386042</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-3.020852179675095e-05</v>
+        <v>-0.001118701521578511</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Terconazole_1G07</t>
-        </is>
-      </c>
-      <c r="B50" s="1" t="n">
-        <v>1</v>
+          <t>Ferroquine_1G09</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>-8.852088006384345e-06</v>
       </c>
       <c r="C50" t="n">
-        <v>-2.029174301621928e-05</v>
+        <v>-0.1343218182431567</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.7118037335446411</v>
+        <v>-0.004010926287047754</v>
       </c>
       <c r="E50" t="n">
-        <v>8.999764604713204e-05</v>
+        <v>-4.913394958299049e-05</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.000181537015342163</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-0.1870069295527621</v>
+        <v>-0.0130069840448102</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n"/>
-      <c r="B51" s="1" t="n">
-        <v>0.5</v>
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>SAX-187_1G10</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.01381723551935739</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.003627530060690249</v>
+        <v>-0.1549453032153794</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.5308018647408642</v>
+        <v>0.03172171959780894</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.0002414313541121735</v>
+        <v>-0</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.01038617755933754</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-0.005950206647764752</v>
+        <v>-0.001266949160860707</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Midostaurin_1G08</t>
-        </is>
-      </c>
-      <c r="B52" s="1" t="n">
-        <v>1</v>
+          <t>Abemaciclib_1G11</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.01293330799648484</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.2461265795860265</v>
+        <v>-0.003594722930949553</v>
       </c>
       <c r="D52" t="n">
-        <v>-4.458164146696879</v>
+        <v>0.02659958487584351</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.03839423315681895</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.01927263597252408</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-0.002493400961881144</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n"/>
-      <c r="B53" s="1" t="n">
-        <v>0.5</v>
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Pevonedistat_1H02</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.0001203028938225401</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.001973660998259941</v>
+        <v>-0.004443889726147343</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.293147242772073</v>
+        <v>-1.846600896053413</v>
       </c>
       <c r="E53" t="n">
-        <v>0.004152139193771979</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.1289830210860322</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-0</v>
+        <v>0.00100902999863248</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Ferroquine_1G09</t>
-        </is>
-      </c>
-      <c r="B54" s="1" t="n">
-        <v>1</v>
+          <t>Tetrandrine_1H03</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>-2.366439857756826e-07</v>
       </c>
       <c r="C54" t="n">
-        <v>-8.852088006384345e-06</v>
+        <v>-0.02615328788030289</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.1343218182431567</v>
+        <v>-1.586630597828727</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.004010926287047754</v>
+        <v>0.003867859816333642</v>
       </c>
       <c r="F54" t="n">
-        <v>-4.913394958299049e-05</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-0.0130069840448102</v>
+        <v>-0.003162639623204422</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>SAX-187_1G10</t>
-        </is>
-      </c>
-      <c r="B55" s="1" t="n">
-        <v>1</v>
+          <t>Lopinavir_1H04</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>-0.0005544437034425856</v>
       </c>
       <c r="C55" t="n">
-        <v>0.01381723551935739</v>
+        <v>-0.01752054286031205</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.1549453032153794</v>
+        <v>-0.1452389307750346</v>
       </c>
       <c r="E55" t="n">
-        <v>0.03172171959780894</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>-0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-0.001266949160860707</v>
+        <v>-0.0007686577862439035</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Abemaciclib_1G11</t>
-        </is>
-      </c>
-      <c r="B56" s="1" t="n">
-        <v>1</v>
+          <t>Imatinib_1H05</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.01288808089485439</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01293330799648484</v>
+        <v>-0.00889937515543884</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.003594722930949553</v>
+        <v>-3.184952729373903</v>
       </c>
       <c r="E56" t="n">
-        <v>0.02659958487584351</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-0</v>
+        <v>0.1056631065025864</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Pevonedistat_1H02</t>
-        </is>
-      </c>
-      <c r="B57" s="1" t="n">
-        <v>1</v>
+          <t>Fluphenazine_1H06</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.01092502355725251</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0001203028938225401</v>
+        <v>0.0002064112023905973</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.004443889726147343</v>
+        <v>-0.05093901221003286</v>
       </c>
       <c r="E57" t="n">
-        <v>-1.846600896053413</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.00100902999863248</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Tetrandrine_1H03</t>
-        </is>
-      </c>
-      <c r="B58" s="1" t="n">
-        <v>1</v>
+          <t>Haloperidol_1H07</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.008013529529412127</v>
       </c>
       <c r="C58" t="n">
-        <v>-2.366439857756826e-07</v>
+        <v>-0.007595308192077652</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.02615328788030289</v>
+        <v>0.009655521743948179</v>
       </c>
       <c r="E58" t="n">
-        <v>-1.586630597828727</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.003867859816333642</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-0.003162639623204422</v>
+        <v>-0.01068063613736982</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Lopinavir_1H04</t>
-        </is>
-      </c>
-      <c r="B59" s="1" t="n">
-        <v>1</v>
+          <t>Ozanimod_1H08</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.0003486209948597056</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.0005544437034425856</v>
+        <v>-0.01830255828982467</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01752054286031205</v>
+        <v>-0.1843150291614415</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1452389307750346</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-0.0007686577862439035</v>
+        <v>-0.02193790571423012</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Imatinib_1H05</t>
-        </is>
-      </c>
-      <c r="B60" s="1" t="n">
-        <v>1</v>
+          <t>Loratidine_1H09</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>-0.0003262375911907601</v>
       </c>
       <c r="C60" t="n">
-        <v>0.01288808089485439</v>
+        <v>0.01735275270493623</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.00889937515543884</v>
+        <v>-0.2564756201126209</v>
       </c>
       <c r="E60" t="n">
-        <v>-3.184952729373903</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0.1056631065025864</v>
+        <v>0.000286184591269939</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Fluphenazine_1H06</t>
-        </is>
-      </c>
-      <c r="B61" s="1" t="n">
-        <v>1</v>
+          <t>Posaconazole_1H10</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.0002572110957969929</v>
       </c>
       <c r="C61" t="n">
-        <v>0.01092502355725251</v>
+        <v>0.005860778967510335</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0002064112023905973</v>
+        <v>0.0002888074089248587</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.05093901221003286</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
+        <v>0.02487844273368694</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Haloperidol_1H07</t>
-        </is>
-      </c>
-      <c r="B62" s="1" t="n">
-        <v>1</v>
+          <t>Pyronaridine_1H11</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.008013529529412127</v>
+        <v>-0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.007595308192077652</v>
+        <v>-0.1143231023108758</v>
       </c>
       <c r="E62" t="n">
-        <v>0.009655521743948179</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-0.01068063613736982</v>
+        <v>0.002592538336555202</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Ozanimod_1H08</t>
-        </is>
-      </c>
-      <c r="B63" s="1" t="n">
-        <v>1</v>
+          <t>Fluspirilene_2A02</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>-0.08780050228962531</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0003486209948597056</v>
+        <v>-2.1935079347806</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01830255828982467</v>
+        <v>-0.005301449959597212</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1843150291614415</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-0.02193790571423012</v>
+        <v>0.0003867207168840642</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Loratidine_1H09</t>
-        </is>
-      </c>
-      <c r="B64" s="1" t="n">
-        <v>1</v>
+          <t>Tetracycline_2A03</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>-0.008747500238279316</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.0003262375911907601</v>
+        <v>-0.3028822065794121</v>
       </c>
       <c r="D64" t="n">
-        <v>0.01735275270493623</v>
+        <v>-0.02365576668284706</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.2564756201126209</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.000286184591269939</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Posaconazole_1H10</t>
-        </is>
-      </c>
-      <c r="B65" s="1" t="n">
-        <v>1</v>
+          <t>Toremifene_2A04</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>-0.01629231011642172</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0002572110957969929</v>
+        <v>-0.4047646142040554</v>
       </c>
       <c r="D65" t="n">
-        <v>0.005860778967510335</v>
+        <v>-0.01917646285459316</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0002888074089248587</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.02487844273368694</v>
+        <v>-0.05174050675104238</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Pyronaridine_1H11</t>
-        </is>
-      </c>
-      <c r="B66" s="1" t="n">
-        <v>1</v>
+          <t>Doxorubicin_2A05</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>-0.00436031056185369</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>-1.155489621047048</v>
       </c>
       <c r="D66" t="n">
-        <v>-0</v>
+        <v>-8.687163353673091</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.1143231023108758</v>
+        <v>0.01015926227839679</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0.002592538336555202</v>
+        <v>-0.0008707067901770806</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Fluspirilene_2A02</t>
-        </is>
-      </c>
-      <c r="B67" s="1" t="n">
-        <v>1</v>
+          <t>Rapamycin_2A06</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>-0.4833128764550472</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.08780050228962531</v>
+        <v>-1.155075627899522</v>
       </c>
       <c r="D67" t="n">
-        <v>-2.1935079347806</v>
+        <v>-0.1833039676932826</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.005301449959597212</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0.0003867207168840642</v>
+        <v>-0.007647360855374833</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Tetracycline_2A03</t>
-        </is>
-      </c>
-      <c r="B68" s="1" t="n">
-        <v>1</v>
+          <t>Ponatinib_2A07</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>-2.149685040359651</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.008747500238279316</v>
+        <v>-0.3119140063689745</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.3028822065794121</v>
+        <v>-0.09749185583624889</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.02365576668284706</v>
+        <v>-3.478067678375949</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-0</v>
+        <v>-2.974206647707491</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Toremifene_2A04</t>
-        </is>
-      </c>
-      <c r="B69" s="1" t="n">
-        <v>1</v>
+          <t>Migalastat_2A08</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.01381687540506075</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.01629231011642172</v>
+        <v>-0.03236993413903068</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.4047646142040554</v>
+        <v>-0.2316345156473432</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.01917646285459316</v>
+        <v>0.03150452044989754</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-0.05174050675104238</v>
+        <v>0.05845415757035071</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Doxorubicin_2A05</t>
-        </is>
-      </c>
-      <c r="B70" s="1" t="n">
-        <v>1</v>
+          <t>Berbamine_2A09</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>-0.0148129563801854</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.00436031056185369</v>
+        <v>-0.03114390015111188</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.155489621047048</v>
+        <v>-0.2228522297075267</v>
       </c>
       <c r="E70" t="n">
-        <v>-8.687163353673091</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0.01015926227839679</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-0.0008707067901770806</v>
+        <v>0.001302286638754586</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Rapamycin_2A06</t>
-        </is>
-      </c>
-      <c r="B71" s="1" t="n">
-        <v>1</v>
+          <t>Metformin_2A10</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.003250359214325374</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.4833128764550472</v>
+        <v>-0.03357040908241162</v>
       </c>
       <c r="D71" t="n">
-        <v>-1.155075627899522</v>
+        <v>-0.006730229532465513</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.1833039676932826</v>
+        <v>0.04171485392809234</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-0.007647360855374833</v>
+        <v>-0.002987208737648782</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Ponatinib_2A07</t>
-        </is>
-      </c>
-      <c r="B72" s="1" t="n">
-        <v>1</v>
+          <t>Fluconazole_2A11</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>6.66115934975533e-07</v>
       </c>
       <c r="C72" t="n">
-        <v>-2.440756664858068</v>
+        <v>-0.00184523555281666</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.3689802097540144</v>
+        <v>0.01566890245016668</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.1266023554647217</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>-4.41341676466778</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-4.113277520377936</v>
+        <v>-0.0005464830503734983</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n"/>
-      <c r="B73" s="1" t="n">
-        <v>0.5</v>
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Lumefantrine_2B02</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1.753021360163055e-07</v>
       </c>
       <c r="C73" t="n">
-        <v>-1.154661260406051</v>
+        <v>-0.01497211011752094</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.08162330794182469</v>
+        <v>-0.0008529393700148711</v>
       </c>
       <c r="E73" t="n">
-        <v>0.8031885503989343</v>
+        <v>-0</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.878221083940556</v>
-      </c>
-      <c r="G73" t="n">
-        <v>2.258981137596917e-05</v>
+        <v>0.132793909519212</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Migalastat_2A08</t>
-        </is>
-      </c>
-      <c r="B74" s="1" t="n">
-        <v>1</v>
+          <t>Anidulafungin_2B03</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>-0.00675795488190928</v>
       </c>
       <c r="C74" t="n">
-        <v>0.01381687540506075</v>
+        <v>-0.0120825618964805</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.03236993413903068</v>
+        <v>-0.01327332375593123</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.2316345156473432</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0.03150452044989754</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0.05845415757035071</v>
+        <v>0.01135458448139324</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Berbamine_2A09</t>
-        </is>
-      </c>
-      <c r="B75" s="1" t="n">
-        <v>1</v>
+          <t>Hanfangchin B_2B04</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>-0.0001069334969467675</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.0148129563801854</v>
+        <v>-0.004324609930092126</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.03114390015111188</v>
+        <v>-0.005486630050543818</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.2228522297075267</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0.001302286638754586</v>
+        <v>0.0005157088506762766</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Metformin_2A10</t>
-        </is>
-      </c>
-      <c r="B76" s="1" t="n">
-        <v>1</v>
+          <t>Entacapone_2B05</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>-0.001780121285518395</v>
       </c>
       <c r="C76" t="n">
-        <v>0.003250359214325374</v>
+        <v>-0.5550682636982174</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.03357040908241162</v>
+        <v>-0.0007973837979717076</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.006730229532465513</v>
+        <v>-0.0009068890014438916</v>
       </c>
       <c r="F76" t="n">
-        <v>0.04171485392809234</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-0.002987208737648782</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Fluconazole_2A11</t>
-        </is>
-      </c>
-      <c r="B77" s="1" t="n">
-        <v>1</v>
+          <t>Thiethylperazine_2B06</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>-0.01151161738737447</v>
       </c>
       <c r="C77" t="n">
-        <v>6.66115934975533e-07</v>
+        <v>-0.01221194356527773</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.00184523555281666</v>
+        <v>0.002983977211640909</v>
       </c>
       <c r="E77" t="n">
-        <v>0.01566890245016668</v>
+        <v>-0.003934155761920269</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-0.0005464830503734983</v>
+        <v>-0.01906269426109231</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Lumefantrine_2B02</t>
-        </is>
-      </c>
-      <c r="B78" s="1" t="n">
-        <v>1</v>
+          <t>Tacrolimus_2B07</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>-0.004359302440145791</v>
       </c>
       <c r="C78" t="n">
-        <v>1.753021360163055e-07</v>
+        <v>-0.8550210320733875</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.01497211011752094</v>
+        <v>0.9947633369883314</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.0008529393700148711</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>-0</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0.132793909519212</v>
+        <v>-0.003126848056996111</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Anidulafungin_2B03</t>
-        </is>
-      </c>
-      <c r="B79" s="1" t="n">
-        <v>1</v>
+          <t>Dabrafenib_2B08</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>-0.0009109853556919804</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.00675795488190928</v>
+        <v>0.0001309443624443342</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.0120825618964805</v>
+        <v>0.001684916930772016</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.01327332375593123</v>
+        <v>-0</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0.01135458448139324</v>
+        <v>0.3123269721713793</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Hanfangchin B_2B04</t>
-        </is>
-      </c>
-      <c r="B80" s="1" t="n">
-        <v>1</v>
+          <t>Dapivirine_2B09</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>-0.0001647789726422028</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.0001069334969467675</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.004324609930092126</v>
+        <v>0.00367718825924811</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.005486630050543818</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0.0005157088506762766</v>
+        <v>0.08315070260123518</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Entacapone_2B05</t>
-        </is>
-      </c>
-      <c r="B81" s="1" t="n">
-        <v>1</v>
+          <t>Mycophenolic acid_2B10</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>-1.342356323845956e-06</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.001780121285518395</v>
+        <v>0.0004354046761392877</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.5550682636982174</v>
+        <v>0.1627500392681133</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.0007973837979717076</v>
+        <v>-0.003934155761920269</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.0009068890014438916</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-0</v>
+        <v>-0.0003571739445244512</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Thiethylperazine_2B06</t>
-        </is>
-      </c>
-      <c r="B82" s="1" t="n">
-        <v>1</v>
+          <t>Tenofovir_2B11</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>-0.001937530784237604</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.01151161738737447</v>
+        <v>0.002299306222735665</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.01221194356527773</v>
+        <v>0.05314130528218049</v>
       </c>
       <c r="E82" t="n">
-        <v>0.002983977211640909</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.003934155761920269</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-0.01906269426109231</v>
+        <v>0.003881633886282225</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Tacrolimus_2B07</t>
-        </is>
-      </c>
-      <c r="B83" s="1" t="n">
-        <v>1</v>
+          <t>Silmitasertib_2C02</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>-0.002143017279897974</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.003411829265739036</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.8967903323722074</v>
+        <v>-0.003822377664488427</v>
       </c>
       <c r="E83" t="n">
-        <v>1.35870286633703</v>
+        <v>-0.008293833409558951</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-0.01017181594727638</v>
+        <v>-0.04551898863404216</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n"/>
-      <c r="B84" s="1" t="n">
-        <v>0.5</v>
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>Oxyclozanide_2C03</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>-0.04244270310088927</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.008486916394653037</v>
+        <v>-0.09146560502833169</v>
       </c>
       <c r="D84" t="n">
-        <v>-5.558278320667502</v>
+        <v>0.08027727366723471</v>
       </c>
       <c r="E84" t="n">
-        <v>5.76626864764324</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.01935079622786667</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.01499248598983067</v>
+        <v>-0.02851741193631409</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Dabrafenib_2B08</t>
-        </is>
-      </c>
-      <c r="B85" s="1" t="n">
-        <v>1</v>
+          <t>Digitoxin_2C04</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>-0.002170511887542459</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.0009109853556919804</v>
+        <v>-0.1419461199444876</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0001309443624443342</v>
+        <v>-0.0006046605798609068</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001684916930772016</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>-0</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0.3123269721713793</v>
+        <v>-0.0258331318321287</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Dapivirine_2B09</t>
-        </is>
-      </c>
-      <c r="B86" s="1" t="n">
-        <v>1</v>
+          <t>Chlormidazole_2C05</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>-0.03826502486681538</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.0001647789726422028</v>
+        <v>-0.1939539695956104</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>-0.04331287032068973</v>
       </c>
       <c r="E86" t="n">
-        <v>0.00367718825924811</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.08315070260123518</v>
+        <v>-0.002931611936140646</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Mycophenolic acid_2B10</t>
-        </is>
-      </c>
-      <c r="B87" s="1" t="n">
-        <v>1</v>
+          <t>Proscillaridin_2C06</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>-0.00223158973011634</v>
       </c>
       <c r="C87" t="n">
-        <v>-1.342356323845956e-06</v>
+        <v>-0.02552906402415491</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0004354046761392877</v>
+        <v>0.000362841816328267</v>
       </c>
       <c r="E87" t="n">
-        <v>0.1627500392681133</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.003934155761920269</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-0.0003571739445244512</v>
+        <v>-0.000680352918882997</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Tenofovir_2B11</t>
-        </is>
-      </c>
-      <c r="B88" s="1" t="n">
-        <v>1</v>
+          <t>Dutacatib_2C07</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>-0.07051172692809732</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.001937530784237604</v>
+        <v>-0.03876882245350169</v>
       </c>
       <c r="D88" t="n">
-        <v>0.002299306222735665</v>
+        <v>0.002188747225324418</v>
       </c>
       <c r="E88" t="n">
-        <v>0.05314130528218049</v>
+        <v>-0.01258692369231091</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0.003881633886282225</v>
+        <v>-0.03698022600425366</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Silmitasertib_2C02</t>
-        </is>
-      </c>
-      <c r="B89" s="1" t="n">
-        <v>1</v>
+          <t>PB 28_2C08</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>-0.08100582811584317</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.002143017279897974</v>
+        <v>0.0005445952160112289</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>3.025384586303805e-05</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.003822377664488427</v>
+        <v>-0.002427336003381497</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.008293833409558951</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-0.04551898863404216</v>
+        <v>-0.5069738282669044</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Oxyclozanide_2C03</t>
-        </is>
-      </c>
-      <c r="B90" s="1" t="n">
-        <v>1</v>
+          <t>Baricitinib_2C09</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>5.251266279202808e-05</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.04244270310088927</v>
+        <v>1.859325548317998e-06</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.09146560502833169</v>
+        <v>-0.01996911315509029</v>
       </c>
       <c r="E90" t="n">
-        <v>0.08027727366723471</v>
+        <v>-0.0050645774890155</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-0.02851741193631409</v>
+        <v>-0.1344181546588024</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Digitoxin_2C04</t>
-        </is>
-      </c>
-      <c r="B91" s="1" t="n">
-        <v>1</v>
+          <t>Eszopiclone_2C10</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>-0.0002690960816025533</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.002170511887542459</v>
+        <v>0.0002420240680752736</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.1419461199444876</v>
+        <v>-0.001616792261473716</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.0006046605798609068</v>
+        <v>-0.002373324694137696</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-0.0258331318321287</v>
+        <v>-0.006237496298565981</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Chlormidazole_2C05</t>
-        </is>
-      </c>
-      <c r="B92" s="1" t="n">
-        <v>1</v>
+          <t>(+)-Mefloquine_2C11</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>-0.004600714285245559</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.03826502486681538</v>
+        <v>0.0001548206352087396</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.1939539695956104</v>
+        <v>0.03030853579747706</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.04331287032068973</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-0.002931611936140646</v>
+        <v>-0.00811163368014732</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Proscillaridin_2C06</t>
-        </is>
-      </c>
-      <c r="B93" s="1" t="n">
-        <v>1</v>
+          <t>Salinomycin_2D02</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>-0.0005305795364919864</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.00223158973011634</v>
+        <v>-0.05766499558293588</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.02552906402415491</v>
+        <v>0.0002022760878139845</v>
       </c>
       <c r="E93" t="n">
-        <v>0.000362841816328267</v>
+        <v>-0.02518085357788141</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-0.000680352918882997</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Dutacatib_2C07</t>
-        </is>
-      </c>
-      <c r="B94" s="1" t="n">
-        <v>1</v>
+          <t>JQ 1_2D03</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>-0.0002199658836966291</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.07051172692809732</v>
+        <v>-0.6306816593285225</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.03876882245350169</v>
+        <v>-0.07382923475765331</v>
       </c>
       <c r="E94" t="n">
-        <v>0.002188747225324418</v>
+        <v>-0.01263495806249274</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.01258692369231091</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-0.03698022600425366</v>
+        <v>0.0001245393841852007</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>PB 28_2C08</t>
-        </is>
-      </c>
-      <c r="B95" s="1" t="n">
-        <v>1</v>
+          <t>RVX 208_2D04</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>-0</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.08100582811584317</v>
+        <v>-0.05103058774581314</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0005445952160112289</v>
+        <v>-0.02441989564470315</v>
       </c>
       <c r="E95" t="n">
-        <v>3.025384586303805e-05</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.002427336003381497</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-0.5069738282669044</v>
+        <v>0.01444665834695115</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Baricitinib_2C09</t>
-        </is>
-      </c>
-      <c r="B96" s="1" t="n">
-        <v>1</v>
+          <t>Osimertinib_2D05</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>-0.002186730730934879</v>
       </c>
       <c r="C96" t="n">
-        <v>5.251266279202808e-05</v>
+        <v>-0.6884670582689637</v>
       </c>
       <c r="D96" t="n">
-        <v>1.859325548317998e-06</v>
+        <v>-0.0001333705700267422</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.01996911315509029</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.0050645774890155</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-0.1344181546588024</v>
+        <v>0.00158652668409575</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Eszopiclone_2C10</t>
-        </is>
-      </c>
-      <c r="B97" s="1" t="n">
-        <v>1</v>
+          <t>Cloperastine_2D06</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>-7.460441720937677e-05</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.0002690960816025533</v>
+        <v>0.001747602984328744</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0002420240680752736</v>
+        <v>0.001300279641406494</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.001616792261473716</v>
+        <v>-0.006381825861745606</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.002373324694137696</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-0.006237496298565981</v>
+        <v>-0.0234293046598511</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>(+)-Mefloquine_2C11</t>
-        </is>
-      </c>
-      <c r="B98" s="1" t="n">
-        <v>1</v>
+          <t>Clemastine_2D07</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>-6.92439231571468e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.004600714285245559</v>
+        <v>-0.1300345447695291</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0001548206352087396</v>
+        <v>-0.01384056419599675</v>
       </c>
       <c r="E98" t="n">
-        <v>0.03030853579747706</v>
+        <v>-0.004535966169505079</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-0.00811163368014732</v>
+        <v>-0.02218597850572509</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Salinomycin_2D02</t>
-        </is>
-      </c>
-      <c r="B99" s="1" t="n">
-        <v>1</v>
+          <t>Merimepodib_2D08</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.008645882687071829</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.0005305795364919864</v>
+        <v>-0.0286441730318808</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.05766499558293588</v>
+        <v>-0.0253508716205889</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0002022760878139845</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.02518085357788141</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-0</v>
+        <v>-0.01079574311617413</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>JQ 1_2D03</t>
-        </is>
-      </c>
-      <c r="B100" s="1" t="n">
-        <v>1</v>
+          <t>E 52862_2D09</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>-0.0001588145238366023</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.0002199658836966291</v>
+        <v>-0.02500192654441559</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.6306816593285225</v>
+        <v>-0.2267035940493152</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.07382923475765331</v>
+        <v>-0.04461121667463584</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.01263495806249274</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0.0001245393841852007</v>
+        <v>-0.00135759045831641</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>RVX 208_2D04</t>
-        </is>
-      </c>
-      <c r="B101" s="1" t="n">
-        <v>1</v>
+          <t>Doravirine_2D10</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.003102542566248572</v>
       </c>
       <c r="C101" t="n">
-        <v>-0</v>
+        <v>-0.0005637767666107086</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.05103058774581314</v>
+        <v>0.0002921376288274711</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.02441989564470315</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0.01444665834695115</v>
+        <v>0.01233290476759516</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Osimertinib_2D05</t>
-        </is>
-      </c>
-      <c r="B102" s="1" t="n">
-        <v>1</v>
+          <t>Cycloheximide_2D11</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>-0.000563513399639039</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.002186730730934879</v>
+        <v>0.02348058508874186</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.6884670582689637</v>
+        <v>0.002154694317637151</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.0001333705700267422</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0.00158652668409575</v>
+        <v>0.0008093802318703051</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Cloperastine_2D06</t>
-        </is>
-      </c>
-      <c r="B103" s="1" t="n">
-        <v>1</v>
+          <t>Umifenovir_2E02</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>-0.004253533037420912</v>
       </c>
       <c r="C103" t="n">
-        <v>-7.460441720937677e-05</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0.001747602984328744</v>
+        <v>-0.0062376517140136</v>
       </c>
       <c r="E103" t="n">
-        <v>0.001300279641406494</v>
+        <v>-0.0001569026011806878</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.006381825861745606</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-0.0234293046598511</v>
+        <v>-0.2165878871361599</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Clemastine_2D07</t>
-        </is>
-      </c>
-      <c r="B104" s="1" t="n">
-        <v>1</v>
+          <t>MRT 68601_2E03</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>2.279927511770499e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>-6.92439231571468e-05</v>
+        <v>-0.0163450439449755</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.1300345447695291</v>
+        <v>0.01201558017232257</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.01384056419599675</v>
+        <v>-0.01120157563705531</v>
       </c>
       <c r="F104" t="n">
-        <v>-0.004535966169505079</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-0.02218597850572509</v>
+        <v>-0.00974158495303638</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Merimepodib_2D08</t>
-        </is>
-      </c>
-      <c r="B105" s="1" t="n">
-        <v>1</v>
+          <t>PD 144418_2E04</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>8.788897229218942e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>0.008645882687071829</v>
+        <v>-5.567588994264923e-06</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.0286441730318808</v>
+        <v>-0.004078763333197012</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.0253508716205889</v>
+        <v>-4.049102668987393e-05</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-0.01079574311617413</v>
+        <v>0.001072251364334751</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>E 52862_2D09</t>
-        </is>
-      </c>
-      <c r="B106" s="1" t="n">
-        <v>1</v>
+          <t>(RS)-PPCC_2E05</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>-0.0009632941024357875</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.0001588145238366023</v>
+        <v>-0.3049586257150181</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.02500192654441559</v>
+        <v>0.0110670498860394</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.2267035940493152</v>
+        <v>-0.002817557440140543</v>
       </c>
       <c r="F106" t="n">
-        <v>-0.04461121667463584</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-0.00135759045831641</v>
+        <v>0.0005659406864997158</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Doravirine_2D10</t>
-        </is>
-      </c>
-      <c r="B107" s="1" t="n">
-        <v>1</v>
+          <t>AZ3451_2E06</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>-7.965162537016683e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>0.003102542566248572</v>
+        <v>-7.412542453738414e-05</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.0005637767666107086</v>
+        <v>-0.01317236916484517</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0002921376288274711</v>
+        <v>-0.0006900068353367122</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
-      </c>
-      <c r="G107" t="n">
-        <v>0.01233290476759516</v>
+        <v>0.001037847789718263</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Cycloheximide_2D11</t>
-        </is>
-      </c>
-      <c r="B108" s="1" t="n">
-        <v>1</v>
+          <t>ZINC4326719_2E07</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>-0.007208998727782321</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.000563513399639039</v>
+        <v>1.5686272880221e-05</v>
       </c>
       <c r="D108" t="n">
-        <v>0.02348058508874186</v>
+        <v>0.0001135993223272745</v>
       </c>
       <c r="E108" t="n">
-        <v>0.002154694317637151</v>
+        <v>-0.00587777344773638</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
-      </c>
-      <c r="G108" t="n">
-        <v>0.0008093802318703051</v>
+        <v>-0.04811676525051187</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Umifenovir_2E02</t>
-        </is>
-      </c>
-      <c r="B109" s="1" t="n">
-        <v>1</v>
+          <t>Losartan_2E08</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>-0.00999538902293433</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.004253533037420912</v>
+        <v>-0</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>0.0101806317470541</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.0062376517140136</v>
+        <v>-0.03142549580561978</v>
       </c>
       <c r="F109" t="n">
-        <v>-0.0001569026011806878</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-0.2165878871361599</v>
+        <v>-0.020413432804965</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>MRT 68601_2E03</t>
-        </is>
-      </c>
-      <c r="B110" s="1" t="n">
-        <v>1</v>
+          <t>Nifedipine_2E09</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.0001193197439546687</v>
       </c>
       <c r="C110" t="n">
-        <v>2.279927511770499e-05</v>
+        <v>-7.652728569768424e-05</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.0163450439449755</v>
+        <v>0.05141966442904018</v>
       </c>
       <c r="E110" t="n">
-        <v>0.01201558017232257</v>
+        <v>-0.06933784683734247</v>
       </c>
       <c r="F110" t="n">
-        <v>-0.01120157563705531</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-0.00974158495303638</v>
+        <v>0.0004980851066278642</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>PD 144418_2E04</t>
-        </is>
-      </c>
-      <c r="B111" s="1" t="n">
-        <v>1</v>
+          <t>Anagliptin_2E10</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>-0.0001277218764161138</v>
       </c>
       <c r="C111" t="n">
-        <v>8.788897229218942e-05</v>
+        <v>-0.009772712748599366</v>
       </c>
       <c r="D111" t="n">
-        <v>-5.567588994264923e-06</v>
+        <v>-0.0008813179931904633</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.004078763333197012</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>-4.049102668987393e-05</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0.001072251364334751</v>
+        <v>-0.09018673255355496</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>(RS)-PPCC_2E05</t>
-        </is>
-      </c>
-      <c r="B112" s="1" t="n">
-        <v>1</v>
+          <t>Desmethyl ferroquine_2E11</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>-0.01252388495927106</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.0009632941024357875</v>
+        <v>8.088326844973693e-05</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.3049586257150181</v>
+        <v>0.0007031900204599595</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0110670498860394</v>
+        <v>-0.000286541171505872</v>
       </c>
       <c r="F112" t="n">
-        <v>-0.002817557440140543</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.0005659406864997158</v>
+        <v>0.001445273997271053</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>AZ3451_2E06</t>
-        </is>
-      </c>
-      <c r="B113" s="1" t="n">
-        <v>1</v>
+          <t>Nebivolol_2F02</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.002370499878293737</v>
       </c>
       <c r="C113" t="n">
-        <v>-7.965162537016683e-05</v>
+        <v>-0.5518752435687694</v>
       </c>
       <c r="D113" t="n">
-        <v>-7.412542453738414e-05</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.01317236916484517</v>
+        <v>-0.001073699459982828</v>
       </c>
       <c r="F113" t="n">
-        <v>-0.0006900068353367122</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.001037847789718263</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>ZINC4326719_2E07</t>
-        </is>
-      </c>
-      <c r="B114" s="1" t="n">
-        <v>1</v>
+          <t>Aprepitant_2F03</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.0001370347913614589</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.007208998727782321</v>
+        <v>-0.3139513508820388</v>
       </c>
       <c r="D114" t="n">
-        <v>1.5686272880221e-05</v>
+        <v>-1.677853037093208e-05</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0001135993223272745</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>-0.00587777344773638</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-0.04811676525051187</v>
+        <v>-0.1057644762334711</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Losartan_2E08</t>
-        </is>
-      </c>
-      <c r="B115" s="1" t="n">
-        <v>1</v>
+          <t>Danusertib_2F04</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.0009278548417374645</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.00999538902293433</v>
+        <v>-0.1027706586225306</v>
       </c>
       <c r="D115" t="n">
-        <v>-0</v>
+        <v>-0.002543212395525387</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0101806317470541</v>
+        <v>-0.02270299223716954</v>
       </c>
       <c r="F115" t="n">
-        <v>-0.03142549580561978</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-0.020413432804965</v>
+        <v>-0.02375635804130045</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Nifedipine_2E09</t>
-        </is>
-      </c>
-      <c r="B116" s="1" t="n">
-        <v>1</v>
+          <t>Apremilast_2F05</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.004999579956157825</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0001193197439546687</v>
+        <v>-0.5155290437500167</v>
       </c>
       <c r="D116" t="n">
-        <v>-7.652728569768424e-05</v>
+        <v>-0.2276554154446263</v>
       </c>
       <c r="E116" t="n">
-        <v>0.05141966442904018</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>-0.06933784683734247</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.0004980851066278642</v>
+        <v>-0.007498613258656686</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Anagliptin_2E10</t>
-        </is>
-      </c>
-      <c r="B117" s="1" t="n">
-        <v>1</v>
+          <t>(-)-Anisomycin_2F06</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.01927075520832566</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.0001277218764161138</v>
+        <v>-0.1642659801790527</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.009772712748599366</v>
+        <v>-5.203268826489142e-05</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.0008813179931904633</v>
+        <v>-0.07961770607122948</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-0.09018673255355496</v>
+        <v>-0.01555931374387391</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Desmethyl ferroquine_2E11</t>
-        </is>
-      </c>
-      <c r="B118" s="1" t="n">
-        <v>1</v>
+          <t>Idelalisib_2F07</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>-1.909252807006743e-05</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.01252388495927106</v>
+        <v>-0.02909998295536576</v>
       </c>
       <c r="D118" t="n">
-        <v>8.088326844973693e-05</v>
+        <v>6.88060119259837e-05</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0007031900204599595</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>-0.000286541171505872</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.001445273997271053</v>
+        <v>-0.1008756241160554</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Nebivolol_2F02</t>
-        </is>
-      </c>
-      <c r="B119" s="1" t="n">
-        <v>1</v>
+          <t>Darifenacin_2F08</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.01105506298723194</v>
       </c>
       <c r="C119" t="n">
-        <v>0.002370499878293737</v>
+        <v>-0.08259137462433422</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.5518752435687694</v>
+        <v>0.0005603127534480285</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>-0.001073699459982828</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-0</v>
+        <v>-0.0257873341482159</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Aprepitant_2F03</t>
-        </is>
-      </c>
-      <c r="B120" s="1" t="n">
-        <v>1</v>
+          <t>Spectinomycin_2F09</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>-3.058808095781611e-05</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0001370347913614589</v>
+        <v>-0.02189495946321211</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.3139513508820388</v>
+        <v>-0.05912835128170023</v>
       </c>
       <c r="E120" t="n">
-        <v>-1.677853037093208e-05</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-0.1057644762334711</v>
+        <v>-6.14910567722207e-05</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Danusertib_2F04</t>
-        </is>
-      </c>
-      <c r="B121" s="1" t="n">
-        <v>1</v>
+          <t>Oxatomide_2F10</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>-1.617990615730213e-05</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0009278548417374645</v>
+        <v>-0.04031081790100492</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.1027706586225306</v>
+        <v>0.0005804910106984183</v>
       </c>
       <c r="E121" t="n">
-        <v>-0.002543212395525387</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>-0.02270299223716954</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-0.02375635804130045</v>
+        <v>-1.284036742264754e-05</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Apremilast_2F05</t>
-        </is>
-      </c>
-      <c r="B122" s="1" t="n">
-        <v>1</v>
+          <t>Promethazine_2F11</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0.00612603310505861</v>
       </c>
       <c r="C122" t="n">
-        <v>0.004999579956157825</v>
+        <v>-0.01854481013899089</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.5155290437500167</v>
+        <v>0.002304614352153158</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.2276554154446263</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-0.007498613258656686</v>
+        <v>-0.002236861676161203</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>(-)-Anisomycin_2F06</t>
-        </is>
-      </c>
-      <c r="B123" s="1" t="n">
-        <v>1</v>
+          <t>Veliparib_2G02</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>-4.515616605446682e-06</v>
       </c>
       <c r="C123" t="n">
-        <v>0.01927075520832566</v>
+        <v>-0.04347705251883462</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.1642659801790527</v>
+        <v>0.009970885663590461</v>
       </c>
       <c r="E123" t="n">
-        <v>-5.203268826489142e-05</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>-0.07961770607122948</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-0.01555931374387391</v>
+        <v>0.03690192777051806</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Idelalisib_2F07</t>
-        </is>
-      </c>
-      <c r="B124" s="1" t="n">
-        <v>1</v>
+          <t>Celecoxib_2G03</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>-0.03885279378687388</v>
       </c>
       <c r="C124" t="n">
-        <v>-1.909252807006743e-05</v>
+        <v>-0.1660190924952355</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.02909998295536576</v>
+        <v>-0.001169855583272558</v>
       </c>
       <c r="E124" t="n">
-        <v>6.88060119259837e-05</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-0.1008756241160554</v>
+        <v>0.000177417669945201</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Darifenacin_2F08</t>
-        </is>
-      </c>
-      <c r="B125" s="1" t="n">
-        <v>1</v>
+          <t>Cabozantinib_2G04</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>-0.684287181420885</v>
       </c>
       <c r="C125" t="n">
-        <v>0.01105506298723194</v>
+        <v>-4.043205696954895</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.08259137462433422</v>
+        <v>-1.548181023340644</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0005603127534480285</v>
+        <v>-273.5078264234957</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-0.0257873341482159</v>
+        <v>-1.902681175340336</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Spectinomycin_2F09</t>
-        </is>
-      </c>
-      <c r="B126" s="1" t="n">
-        <v>1</v>
+          <t>Selumetinib_2G05</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>-0.0001347304490773045</v>
       </c>
       <c r="C126" t="n">
-        <v>-3.058808095781611e-05</v>
+        <v>-0.0826548989742894</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.02189495946321211</v>
+        <v>-0.001183282036621798</v>
       </c>
       <c r="E126" t="n">
-        <v>-0.05912835128170023</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-6.14910567722207e-05</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Oxatomide_2F10</t>
-        </is>
-      </c>
-      <c r="B127" s="1" t="n">
-        <v>1</v>
+          <t>Bortezomib_2G06</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>-1.617990615730213e-05</v>
+        <v>-0.009945711315579099</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.04031081790100492</v>
+        <v>-8.670111303180116e-05</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0005804910106984183</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-1.284036742264754e-05</v>
+        <v>-0.01895735326457465</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Promethazine_2F11</t>
-        </is>
-      </c>
-      <c r="B128" s="1" t="n">
-        <v>1</v>
+          <t>Pimozide_2G07</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>-2.9229745986096</v>
       </c>
       <c r="C128" t="n">
-        <v>0.00612603310505861</v>
+        <v>-6.768232386918842</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.01854481013899089</v>
+        <v>-5.729003051430981</v>
       </c>
       <c r="E128" t="n">
-        <v>0.002304614352153158</v>
+        <v>-0.02712039686443824</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-0.002236861676161203</v>
+        <v>-1.296893337993898</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Veliparib_2G02</t>
-        </is>
-      </c>
-      <c r="B129" s="1" t="n">
-        <v>1</v>
+          <t>Sertindole_2G08</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>-0.0297251479721862</v>
       </c>
       <c r="C129" t="n">
-        <v>-4.515616605446682e-06</v>
+        <v>-0.1713004039104928</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.04347705251883462</v>
+        <v>-3.645892736423632e-05</v>
       </c>
       <c r="E129" t="n">
-        <v>0.009970885663590461</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0.03690192777051806</v>
+        <v>-0.003745192879869021</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Celecoxib_2G03</t>
-        </is>
-      </c>
-      <c r="B130" s="1" t="n">
-        <v>1</v>
+          <t>Boceprevir_2G09</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>-0.009859731627594903</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.03885279378687388</v>
+        <v>-0.01372173782636635</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.1660190924952355</v>
+        <v>-0.001113370716529016</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.001169855583272558</v>
+        <v>-0.004453416589114838</v>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
-      </c>
-      <c r="G130" t="n">
-        <v>0.000177417669945201</v>
+        <v>-0.07057019997003072</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Cabozantinib_2G04</t>
-        </is>
-      </c>
-      <c r="B131" s="1" t="n">
-        <v>1</v>
+          <t>Valdecoxib_2G10</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>-0.02952516193975376</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.6665732560812185</v>
+        <v>-0.03010304357280631</v>
       </c>
       <c r="D131" t="n">
-        <v>-4.844337803473361</v>
+        <v>0.00364512169520807</v>
       </c>
       <c r="E131" t="n">
-        <v>-2.104320566789865</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>-315.4482498999367</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-2.67963280230674</v>
+        <v>-0.031515319698608</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n"/>
-      <c r="B132" s="1" t="n">
-        <v>0.5</v>
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>Paroxetine_2G11</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>-0.0708505752418926</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.00896469081497993</v>
+        <v>-0.05390222580357787</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.0006712606942816318</v>
+        <v>0.002668456540163803</v>
       </c>
       <c r="E132" t="n">
-        <v>0.4723536183750683</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>-30.74438192267519</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-8.302752586747156</v>
+        <v>9.892793816517781e-05</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Selumetinib_2G05</t>
-        </is>
-      </c>
-      <c r="B133" s="1" t="n">
-        <v>1</v>
+          <t>Darunavir_2H02</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>-0.02068364248039568</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.0001347304490773045</v>
+        <v>-0.07061114494120174</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.0826548989742894</v>
+        <v>-0.1196255512655022</v>
       </c>
       <c r="E133" t="n">
-        <v>-0.001183282036621798</v>
+        <v>-0.0009992421012241994</v>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
-      </c>
-      <c r="G133" t="n">
-        <v>0</v>
+        <v>-0.001492876551844727</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Bortezomib_2G06</t>
-        </is>
-      </c>
-      <c r="B134" s="1" t="n">
-        <v>1</v>
+          <t>Brequinar_2H03</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>-0.01370941981724342</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>-0.3834706415649708</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.009945711315579099</v>
+        <v>0.0005251667492071774</v>
       </c>
       <c r="E134" t="n">
-        <v>-8.670111303180116e-05</v>
+        <v>0.0004535844650111681</v>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-0.01895735326457465</v>
+        <v>-0.05767616485063774</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Pimozide_2G07</t>
-        </is>
-      </c>
-      <c r="B135" s="1" t="n">
-        <v>1</v>
+          <t>Delanzomib_2H04</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>-0.05640148494059299</v>
       </c>
       <c r="C135" t="n">
-        <v>-2.9229745986096</v>
+        <v>-0.0005547961306810978</v>
       </c>
       <c r="D135" t="n">
-        <v>-6.768232386918842</v>
+        <v>-1.218137528140848</v>
       </c>
       <c r="E135" t="n">
-        <v>-5.729003051430981</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>-0.02712039686443824</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-1.296893337993898</v>
+        <v>-0.001055879193874094</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Sertindole_2G08</t>
-        </is>
-      </c>
-      <c r="B136" s="1" t="n">
-        <v>1</v>
+          <t>Delavirdine_2H05</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1.642914769658325e-05</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.0297251479721862</v>
+        <v>-0.0337456849869592</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.1713004039104928</v>
+        <v>-0.7225154940994819</v>
       </c>
       <c r="E136" t="n">
-        <v>-3.645892736423632e-05</v>
+        <v>0.008643512998207432</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-0.003745192879869021</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Boceprevir_2G09</t>
-        </is>
-      </c>
-      <c r="B137" s="1" t="n">
-        <v>1</v>
+          <t>Indinavir_2H06</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>-0.0006987043170859588</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.009859731627594903</v>
+        <v>-6.772805617800906e-05</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.01372173782636635</v>
+        <v>-0.2680602758890176</v>
       </c>
       <c r="E137" t="n">
-        <v>-0.001113370716529016</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>-0.004453416589114838</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-0.07057019997003072</v>
+        <v>-0.02410744564036993</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Valdecoxib_2G10</t>
-        </is>
-      </c>
-      <c r="B138" s="1" t="n">
-        <v>1</v>
+          <t>Abacavir_2H07</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>7.159617665089577e-05</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.02952516193975376</v>
+        <v>8.919961942636427e-05</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.03010304357280631</v>
+        <v>-0.005993560708019547</v>
       </c>
       <c r="E138" t="n">
-        <v>0.00364512169520807</v>
+        <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-0.031515319698608</v>
+        <v>-0.1750598493069128</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Paroxetine_2G11</t>
-        </is>
-      </c>
-      <c r="B139" s="1" t="n">
-        <v>1</v>
+          <t>Chlorothiazide_2H08</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>-0.008251884315744263</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.0708505752418926</v>
+        <v>0.005286093590254897</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.05390222580357787</v>
+        <v>-1.015749006480376</v>
       </c>
       <c r="E139" t="n">
-        <v>0.002668456540163803</v>
+        <v>-0.003218615048645101</v>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
-      </c>
-      <c r="G139" t="n">
-        <v>9.892793816517781e-05</v>
+        <v>0.001379688817516899</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Darunavir_2H02</t>
-        </is>
-      </c>
-      <c r="B140" s="1" t="n">
-        <v>1</v>
+          <t>Apixaban_2H09</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>-0.009786094712514036</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.02068364248039568</v>
+        <v>-0.001620142705416456</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.07061114494120174</v>
+        <v>-0.3834526305594455</v>
       </c>
       <c r="E140" t="n">
-        <v>-0.1196255512655022</v>
+        <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>-0.0009992421012241994</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-0.001492876551844727</v>
+        <v>0.05886894912909087</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Brequinar_2H03</t>
-        </is>
-      </c>
-      <c r="B141" s="1" t="n">
-        <v>1</v>
+          <t>Naphtoquine_2H10</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>-0.009752056382445471</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.01370941981724342</v>
+        <v>-0.009712057964241096</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.3834706415649708</v>
+        <v>-0.3840659274330675</v>
       </c>
       <c r="E141" t="n">
-        <v>0.0005251667492071774</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.0004535844650111681</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-0.05767616485063774</v>
+        <v>-0.7150058507069127</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Delanzomib_2H04</t>
-        </is>
-      </c>
-      <c r="B142" s="1" t="n">
-        <v>1</v>
+          <t>Piperaquine_2H11</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>-0.02154359473828476</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.05640148494059299</v>
+        <v>-1.676462001809456e-05</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.0005547961306810978</v>
+        <v>-0.1622557205726184</v>
       </c>
       <c r="E142" t="n">
-        <v>-1.218137528140848</v>
+        <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-0.001055879193874094</v>
+        <v>-0.0003386341868849615</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Delavirdine_2H05</t>
-        </is>
-      </c>
-      <c r="B143" s="1" t="n">
-        <v>1</v>
+          <t>Lusutrombopag_1A03</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0.003823545886664181</v>
       </c>
       <c r="C143" t="n">
-        <v>1.642914769658325e-05</v>
+        <v>-0.09296373124128879</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.0337456849869592</v>
+        <v>2.689200963343692e-06</v>
       </c>
       <c r="E143" t="n">
-        <v>-0.7225154940994819</v>
+        <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>0.008643512998207432</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0</v>
+        <v>4.418792609562435e-05</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Indinavir_2H06</t>
-        </is>
-      </c>
-      <c r="B144" s="1" t="n">
-        <v>1</v>
+          <t>Bemcentinib_1A04</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0.001249128134070361</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.0006987043170859588</v>
+        <v>-0.009939197099551959</v>
       </c>
       <c r="D144" t="n">
-        <v>-6.772805617800906e-05</v>
+        <v>-0.1202394183404051</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.2680602758890176</v>
+        <v>0.008009799831067038</v>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-0.02410744564036993</v>
+        <v>-0.001459544997935938</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Abacavir_2H07</t>
-        </is>
-      </c>
-      <c r="B145" s="1" t="n">
-        <v>1</v>
+          <t>ONO 5334_1A05</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0.0214138128182976</v>
       </c>
       <c r="C145" t="n">
-        <v>7.159617665089577e-05</v>
+        <v>-0.002739225752626516</v>
       </c>
       <c r="D145" t="n">
-        <v>8.919961942636427e-05</v>
+        <v>-0.003438132123979525</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.005993560708019547</v>
+        <v>0.004993533204148439</v>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-0.1750598493069128</v>
+        <v>-0.0006052699785309347</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Chlorothiazide_2H08</t>
-        </is>
-      </c>
-      <c r="B146" s="1" t="n">
-        <v>1</v>
+          <t>Remdesivir_1A06</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>3.742079268630392e-06</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.008251884315744263</v>
+        <v>-0.01201009607876484</v>
       </c>
       <c r="D146" t="n">
-        <v>0.005286093590254897</v>
+        <v>-0.02748954858274527</v>
       </c>
       <c r="E146" t="n">
-        <v>-1.015749006480376</v>
+        <v>0.001323993415755714</v>
       </c>
       <c r="F146" t="n">
-        <v>-0.003218615048645101</v>
-      </c>
-      <c r="G146" t="n">
-        <v>0.001379688817516899</v>
+        <v>-0.002692649666502411</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Apixaban_2H09</t>
-        </is>
-      </c>
-      <c r="B147" s="1" t="n">
-        <v>1</v>
+          <t>N-Desethylamodiaquine_1A07</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0.002826364305175107</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.009786094712514036</v>
+        <v>-0.0001089968344334362</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.001620142705416456</v>
+        <v>-0.3298359610118196</v>
       </c>
       <c r="E147" t="n">
-        <v>-0.3834526305594455</v>
+        <v>0.000316690077848327</v>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
-      </c>
-      <c r="G147" t="n">
-        <v>0.05886894912909087</v>
+        <v>3.668200551895776e-05</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Naphtoquine_2H10</t>
-        </is>
-      </c>
-      <c r="B148" s="1" t="n">
-        <v>1</v>
+          <t>Ciclesonide_1A08</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>-0.0004694455682611308</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.009752056382445471</v>
+        <v>0.001040815131278621</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.009712057964241096</v>
+        <v>-1.388654174587885</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.3840659274330675</v>
+        <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-0.7150058507069127</v>
+        <v>0.009044376595219448</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Piperaquine_2H11</t>
-        </is>
-      </c>
-      <c r="B149" s="1" t="n">
-        <v>1</v>
+          <t>Nelfinavir_1A09</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0.002309196393840694</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.02154359473828476</v>
+        <v>-0.0002757735130809323</v>
       </c>
       <c r="D149" t="n">
-        <v>-1.676462001809456e-05</v>
+        <v>0.0001952097322080058</v>
       </c>
       <c r="E149" t="n">
-        <v>-0.1622557205726184</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-0.0003386341868849615</v>
+        <v>-0.01112269440420296</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Lusutrombopag_1A03</t>
-        </is>
-      </c>
-      <c r="B150" s="1" t="n">
-        <v>1</v>
+          <t>Ethaverine_1A10</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>-1.536585646456661e-06</v>
       </c>
       <c r="C150" t="n">
-        <v>0.003823545886664181</v>
+        <v>-9.150917126276499e-05</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.09296373124128879</v>
+        <v>0.01208300069929107</v>
       </c>
       <c r="E150" t="n">
-        <v>2.689200963343692e-06</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
-      </c>
-      <c r="G150" t="n">
-        <v>4.418792609562435e-05</v>
+        <v>-0.04816421329211464</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Bemcentinib_1A04</t>
-        </is>
-      </c>
-      <c r="B151" s="1" t="n">
-        <v>1</v>
+          <t>Ritonavir_1A11</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1.584029282137944e-05</v>
       </c>
       <c r="C151" t="n">
-        <v>0.001249128134070361</v>
+        <v>-0.02512645736907373</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.009939197099551959</v>
+        <v>-0.01393578649151755</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.1202394183404051</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>0.008009799831067038</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-0.001459544997935938</v>
+        <v>-0.03765973040492564</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>ONO 5334_1A05</t>
-        </is>
-      </c>
-      <c r="B152" s="1" t="n">
-        <v>1</v>
+          <t>Chlorpromazine_1B02</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>-3.046509589363699e-05</v>
       </c>
       <c r="C152" t="n">
-        <v>0.0214138128182976</v>
+        <v>-0.05342136649664781</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.002739225752626516</v>
+        <v>0.01004464892225676</v>
       </c>
       <c r="E152" t="n">
-        <v>-0.003438132123979525</v>
+        <v>0.005296374822113915</v>
       </c>
       <c r="F152" t="n">
-        <v>0.004993533204148439</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-0.0006052699785309347</v>
+        <v>0.009864551966273418</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Remdesivir_1A06</t>
-        </is>
-      </c>
-      <c r="B153" s="1" t="n">
-        <v>1</v>
+          <t>Regorafenib_1B04</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>-0.386286266592311</v>
       </c>
       <c r="C153" t="n">
-        <v>3.742079268630392e-06</v>
+        <v>-2.800623541556301</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.01201009607876484</v>
+        <v>-3.227200892015133</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.02748954858274527</v>
+        <v>-99.47570335122528</v>
       </c>
       <c r="F153" t="n">
-        <v>0.001323993415755714</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-0.002692649666502411</v>
+        <v>-3.962014323489952</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>N-Desethylamodiaquine_1A07</t>
-        </is>
-      </c>
-      <c r="B154" s="1" t="n">
-        <v>1</v>
+          <t>Pexidartanib_1B05</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>-0.04074121400212918</v>
       </c>
       <c r="C154" t="n">
-        <v>0.002826364305175107</v>
+        <v>-0.2144812166499563</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.0001089968344334362</v>
+        <v>0.00330965920106905</v>
       </c>
       <c r="E154" t="n">
-        <v>-0.3298359610118196</v>
+        <v>-0.05387071595203552</v>
       </c>
       <c r="F154" t="n">
-        <v>0.000316690077848327</v>
-      </c>
-      <c r="G154" t="n">
-        <v>3.668200551895776e-05</v>
+        <v>-0.0201792403831392</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Ciclesonide_1A08</t>
-        </is>
-      </c>
-      <c r="B155" s="1" t="n">
-        <v>1</v>
+          <t>Ketoconazole_1B06</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0.009832671829173242</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.0004694455682611308</v>
+        <v>0.0002541800244538781</v>
       </c>
       <c r="D155" t="n">
-        <v>0.001040815131278621</v>
+        <v>5.323310780814859e-05</v>
       </c>
       <c r="E155" t="n">
-        <v>-1.388654174587885</v>
+        <v>0.01325479985457089</v>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
-      </c>
-      <c r="G155" t="n">
-        <v>0.009044376595219448</v>
+        <v>0.000805046211285501</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Nelfinavir_1A09</t>
-        </is>
-      </c>
-      <c r="B156" s="1" t="n">
-        <v>1</v>
+          <t>Drotaverine_1B07</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0.001208030800729271</v>
       </c>
       <c r="C156" t="n">
-        <v>0.002309196393840694</v>
+        <v>0.0003212443833210939</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.0002757735130809323</v>
+        <v>9.096452660634352e-05</v>
       </c>
       <c r="E156" t="n">
-        <v>0.0001952097322080058</v>
+        <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-0.01112269440420296</v>
+        <v>2.836777018102202e-05</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Ethaverine_1A10</t>
-        </is>
-      </c>
-      <c r="B157" s="1" t="n">
-        <v>1</v>
+          <t>Verapamil_1B08</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>-0.0009112454656872491</v>
       </c>
       <c r="C157" t="n">
-        <v>-1.536585646456661e-06</v>
+        <v>-8.483091521002655e-05</v>
       </c>
       <c r="D157" t="n">
-        <v>-9.150917126276499e-05</v>
+        <v>0.002972405562472186</v>
       </c>
       <c r="E157" t="n">
-        <v>0.01208300069929107</v>
+        <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-0.04816421329211464</v>
+        <v>0.001694249766909358</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Ritonavir_1A11</t>
-        </is>
-      </c>
-      <c r="B158" s="1" t="n">
-        <v>1</v>
+          <t>R 7112_1B09</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0.007787244925156487</v>
       </c>
       <c r="C158" t="n">
-        <v>1.584029282137944e-05</v>
+        <v>0.00341396785185511</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.02512645736907373</v>
+        <v>0.0001372115428484281</v>
       </c>
       <c r="E158" t="n">
-        <v>-0.01393578649151755</v>
+        <v>0.01287307141042185</v>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-0.03765973040492564</v>
+        <v>1.948351898482729e-05</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Chlorpromazine_1B02</t>
-        </is>
-      </c>
-      <c r="B159" s="1" t="n">
-        <v>1</v>
+          <t>Atazanavir_1B10</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0.009477267500849141</v>
       </c>
       <c r="C159" t="n">
-        <v>-3.046509589363699e-05</v>
+        <v>-5.575009830218538e-06</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.05342136649664781</v>
+        <v>0.02295744449781678</v>
       </c>
       <c r="E159" t="n">
-        <v>0.01004464892225676</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>0.005296374822113915</v>
-      </c>
-      <c r="G159" t="n">
-        <v>0.009864551966273418</v>
+        <v>0.06708885234671733</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Apilimod_1B03</t>
-        </is>
-      </c>
-      <c r="B160" s="1" t="n">
-        <v>1</v>
+          <t>Ruxolitinib_1B11</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>-0.001105808184765611</v>
       </c>
       <c r="C160" t="n">
-        <v>-1.140511262429744</v>
+        <v>-0.04546339851757362</v>
       </c>
       <c r="D160" t="n">
-        <v>-4.593353845088104</v>
+        <v>3.415549904305485e-05</v>
       </c>
       <c r="E160" t="n">
-        <v>-5.427752138771169</v>
+        <v>0.00428208043401943</v>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-1.176414647191162</v>
+        <v>-0.01162423561218013</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="n"/>
-      <c r="B161" s="1" t="n">
-        <v>0.5</v>
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>Niclosamide_1A02</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>-0.1481280271030555</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.2227751751471123</v>
+        <v>-0.189193592059343</v>
       </c>
       <c r="D161" t="n">
-        <v>-2.468840073834594</v>
+        <v>-0</v>
       </c>
       <c r="E161" t="n">
-        <v>-0.03857592326218828</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
-      </c>
-      <c r="G161" t="n">
-        <v>0.0007041562673777273</v>
+        <v>0.001517399310411962</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Regorafenib_1B04</t>
-        </is>
-      </c>
-      <c r="B162" s="1" t="n">
-        <v>1</v>
+          <t>Apilimod_1B03</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>-0.2789838767779769</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.386286266592311</v>
+        <v>-2.104048023014777</v>
       </c>
       <c r="D162" t="n">
-        <v>-2.800623541556301</v>
+        <v>-0.01726005212965862</v>
       </c>
       <c r="E162" t="n">
-        <v>-3.227200892015133</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>-99.47570335122528</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-3.962014323489952</v>
+        <v>0.0007285478687470631</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Pexidartanib_1B05</t>
-        </is>
-      </c>
-      <c r="B163" s="1" t="n">
-        <v>1</v>
+          <t>Molnupiravir</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>-0.007476622700485947</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.04074121400212918</v>
+        <v>-0.2414447382321995</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.2144812166499563</v>
+        <v>-0.06503422619219518</v>
       </c>
       <c r="E163" t="n">
-        <v>0.00330965920106905</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>-0.05387071595203552</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-0.0201792403831392</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="inlineStr">
-        <is>
-          <t>Ketoconazole_1B06</t>
-        </is>
-      </c>
-      <c r="B164" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C164" t="n">
-        <v>0.009832671829173242</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0.0002541800244538781</v>
-      </c>
-      <c r="E164" t="n">
-        <v>5.323310780814859e-05</v>
-      </c>
-      <c r="F164" t="n">
-        <v>0.01325479985457089</v>
-      </c>
-      <c r="G164" t="n">
-        <v>0.000805046211285501</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="inlineStr">
-        <is>
-          <t>Drotaverine_1B07</t>
-        </is>
-      </c>
-      <c r="B165" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C165" t="n">
-        <v>0.001208030800729271</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0.0003212443833210939</v>
-      </c>
-      <c r="E165" t="n">
-        <v>9.096452660634352e-05</v>
-      </c>
-      <c r="F165" t="n">
-        <v>0</v>
-      </c>
-      <c r="G165" t="n">
-        <v>2.836777018102202e-05</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="inlineStr">
-        <is>
-          <t>Verapamil_1B08</t>
-        </is>
-      </c>
-      <c r="B166" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C166" t="n">
-        <v>-0.0009112454656872491</v>
-      </c>
-      <c r="D166" t="n">
-        <v>-8.483091521002655e-05</v>
-      </c>
-      <c r="E166" t="n">
-        <v>0.002972405562472186</v>
-      </c>
-      <c r="F166" t="n">
-        <v>0</v>
-      </c>
-      <c r="G166" t="n">
-        <v>0.001694249766909358</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="inlineStr">
-        <is>
-          <t>R 7112_1B09</t>
-        </is>
-      </c>
-      <c r="B167" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C167" t="n">
-        <v>0.007787244925156487</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0.00341396785185511</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0.0001372115428484281</v>
-      </c>
-      <c r="F167" t="n">
-        <v>0.01287307141042185</v>
-      </c>
-      <c r="G167" t="n">
-        <v>1.948351898482729e-05</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="inlineStr">
-        <is>
-          <t>Atazanavir_1B10</t>
-        </is>
-      </c>
-      <c r="B168" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C168" t="n">
-        <v>0.009477267500849141</v>
-      </c>
-      <c r="D168" t="n">
-        <v>-5.575009830218538e-06</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0.02295744449781678</v>
-      </c>
-      <c r="F168" t="n">
-        <v>0</v>
-      </c>
-      <c r="G168" t="n">
-        <v>0.06708885234671733</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="inlineStr">
-        <is>
-          <t>Ruxolitinib_1B11</t>
-        </is>
-      </c>
-      <c r="B169" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C169" t="n">
-        <v>-0.001105808184765611</v>
-      </c>
-      <c r="D169" t="n">
-        <v>-0.04546339851757362</v>
-      </c>
-      <c r="E169" t="n">
-        <v>3.415549904305485e-05</v>
-      </c>
-      <c r="F169" t="n">
-        <v>0.00428208043401943</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-0.01162423561218013</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="inlineStr">
-        <is>
-          <t>Niclosamide_1A02</t>
-        </is>
-      </c>
-      <c r="B170" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C170" t="n">
-        <v>-0.1481280271030555</v>
-      </c>
-      <c r="D170" t="n">
-        <v>-0.189193592059343</v>
-      </c>
-      <c r="E170" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F170" t="n">
-        <v>0</v>
-      </c>
-      <c r="G170" t="n">
-        <v>0.001517399310411962</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="inlineStr">
-        <is>
-          <t>Molnupiravir</t>
-        </is>
-      </c>
-      <c r="B171" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C171" t="n">
-        <v>-0.003440259359946399</v>
-      </c>
-      <c r="D171" t="n">
-        <v>1.633006307506202e-05</v>
-      </c>
-      <c r="E171" t="n">
-        <v>-0.02417936285615402</v>
-      </c>
-      <c r="F171" t="n">
-        <v>0</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-0.08454130436667202</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n"/>
-      <c r="B172" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C172" t="n">
-        <v>-0.007476622700485947</v>
-      </c>
-      <c r="D172" t="n">
-        <v>-0.2414447382321995</v>
-      </c>
-      <c r="E172" t="n">
-        <v>-0.06503422619219518</v>
-      </c>
-      <c r="F172" t="n">
-        <v>0</v>
-      </c>
-      <c r="G172" t="n">
         <v>0.004766068251292205</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1" t="n"/>
-      <c r="B173" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C173" t="n">
-        <v>-0.01034158173024194</v>
-      </c>
-      <c r="D173" t="n">
-        <v>-0.01572542972582679</v>
-      </c>
-      <c r="E173" t="n">
-        <v>-0.05237858392558947</v>
-      </c>
-      <c r="F173" t="n">
-        <v>0</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-0.009483483401908804</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n"/>
-      <c r="B174" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="C174" t="n">
-        <v>-0.00495341477258282</v>
-      </c>
-      <c r="D174" t="n">
-        <v>-0.009146380526588047</v>
-      </c>
-      <c r="E174" t="n">
-        <v>-0.003284151251382367</v>
-      </c>
-      <c r="F174" t="n">
-        <v>0</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-0.02775878458946241</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="A171:A174"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Data/2022-07-28_Morphology_Assay_effectscore.xlsx
+++ b/Data/2022-07-28_Morphology_Assay_effectscore.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -425,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,27 +455,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Body length (µm)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Heart Rate (BPM)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Ejection fraction (%)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Number ISV (Count)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>ISV area (µm^2)</t>
         </is>
@@ -466,19 +487,22 @@
           <t>Papaverine_1C02</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
         <v>6.351278665886031e-05</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>-0.003214084878331812</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.2303091885411128</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>-0.00147641489931722</v>
       </c>
     </row>
@@ -488,19 +512,22 @@
           <t>GSK-369796_1C03</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>2.200534273599261e-06</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>-0.1029282215518136</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.1461077697863718</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>-0.04959007769354219</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>1.969704576934258e-05</v>
       </c>
     </row>
@@ -510,19 +537,22 @@
           <t>Daclatasvir_1C04</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
         <v>-1.464117891943035e-05</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>-0.1998532880918032</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>-8.589795097812832e-05</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>-0.005524063265728762</v>
       </c>
     </row>
@@ -532,19 +562,22 @@
           <t>Lonafarnib_1C05</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
         <v>3.318064084942221e-05</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>-0.2459950946680637</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.0315667173670816</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>-7.209079436631617e-06</v>
       </c>
     </row>
@@ -554,19 +587,22 @@
           <t>Itraconazole_1C06</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
         <v>-0.003953451482799325</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>-0.4772203938558363</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>-0</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>-0.004589563157104963</v>
       </c>
     </row>
@@ -576,19 +612,22 @@
           <t>GSK 983_1C07</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
         <v>-0.0002930013602114053</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>-0.0851141214820873</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.002966079445203709</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>-0.001127363084151604</v>
       </c>
     </row>
@@ -598,19 +637,22 @@
           <t>Tioguanine_1C08</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
         <v>1.577913880326411e-06</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>-0.006954440422677441</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>7.785964879593859e-05</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>-0.001526820958667483</v>
       </c>
     </row>
@@ -620,19 +662,22 @@
           <t>Tomivosertib_1C09</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
         <v>0.0002436687749447058</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0.0002655784546460025</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.004408966177704377</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>-0.03215523342908799</v>
       </c>
     </row>
@@ -642,19 +687,22 @@
           <t>LY 2228820_1C10</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
         <v>0.0003004168814612558</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>-0.0001839677460891907</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.02537956532725368</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.0001743350828268861</v>
       </c>
     </row>
@@ -664,8 +712,8 @@
           <t>Control</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
+      <c r="B11" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -677,6 +725,9 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -686,19 +737,22 @@
           <t>Tigecycline_1C11</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
         <v>0.005641468900839692</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>-0.00301223923571967</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.09438791335410934</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>-0.03296409962568436</v>
       </c>
     </row>
@@ -708,19 +762,22 @@
           <t>Digoxin_1D02</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
         <v>-0.005996105189252534</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>-0.004603676844372592</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>-0.002154757055332335</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.001663108271892801</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.04704358560395638</v>
       </c>
     </row>
@@ -730,19 +787,22 @@
           <t>Amodiaquine_1D03</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
         <v>-0.0379926172570034</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>-0.1532228349029746</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>-0.05035940343480218</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.009628619923261771</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.002966685379628594</v>
       </c>
     </row>
@@ -752,3279 +812,3990 @@
           <t>Astemizole_1D04</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>-4.34894357789545</v>
+      <c r="B15" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>-5.132430014571145</v>
+        <v>-4.805178038106492</v>
       </c>
       <c r="D15" t="n">
-        <v>-20.54632860343208</v>
+        <v>-6.753907823106802</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1355649774333714</v>
+        <v>-26.72886742121627</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.240162719835195</v>
+        <v>-0.08314104325850689</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-1.564286330827209</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Halofantrine_1D05</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>-0.0003667916158560999</v>
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.692381431445398</v>
+        <v>-2.295861122056816</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02419037357791931</v>
+        <v>-15.48319337316601</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-0.3519236322879759</v>
       </c>
       <c r="F16" t="n">
-        <v>4.578482548245083e-05</v>
+        <v>-0.1173198967581043</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.1246456675144074</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Ravuconazole_1D06</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-0.06237366476896477</v>
+          <t>Halofantrine_1D05</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.01436768267344619</v>
+        <v>-0.0003667916158560999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1313862464732009</v>
+        <v>-2.692381431445398</v>
       </c>
       <c r="E17" t="n">
-        <v>0.001085693622423033</v>
+        <v>0.02419037357791931</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.04907260001151499</v>
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4.578482548245083e-05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Tizoxanide_1D07</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.00339206329228403</v>
+          <t>Ravuconazole_1D06</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.005416905317601198</v>
+        <v>-0.06237366476896477</v>
       </c>
       <c r="D18" t="n">
-        <v>0.004084956507248951</v>
+        <v>-0.01436768267344619</v>
       </c>
       <c r="E18" t="n">
-        <v>0.004659522164846335</v>
+        <v>0.1313862464732009</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0005346930901827927</v>
+        <v>0.001085693622423033</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.04907260001151499</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Valproic Acid_1D08</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.002357970999408355</v>
+          <t>Tizoxanide_1D07</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.002030557197935585</v>
+        <v>-0.00339206329228403</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.0004578715018552468</v>
+        <v>-0.005416905317601198</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02229725888706594</v>
+        <v>0.004084956507248951</v>
       </c>
       <c r="F19" t="n">
-        <v>0.006872680592790962</v>
+        <v>0.004659522164846335</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.0005346930901827927</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Simeprevir_1D09</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.01941084193931476</v>
+          <t>Valproic Acid_1D08</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0967712337696931</v>
+        <v>-0.002357970999408355</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.01939864673158889</v>
+        <v>-0.002030557197935585</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-0.0004578715018552468</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01913800216014023</v>
+        <v>0.02229725888706594</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.006872680592790962</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Favipiravir_1D10</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.03659217497140475</v>
+          <t>Simeprevir_1D09</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.02017727514567503</v>
+        <v>-0.01941084193931476</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.001631788407478082</v>
+        <v>-0.0967712337696931</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>-0.01939864673158889</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.04644289923392446</v>
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.01913800216014023</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Vidofludimus_1D11</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0001150327883063065</v>
+          <t>Favipiravir_1D10</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.0009368315167149217</v>
+        <v>-0.03659217497140475</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.009120795717753231</v>
+        <v>-0.02017727514567503</v>
       </c>
       <c r="E22" t="n">
-        <v>7.646318016412981e-05</v>
+        <v>-0.001631788407478082</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0002184205991236403</v>
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.04644289923392446</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Hydroxyprogesterone_1E02</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.02389034354594259</v>
+          <t>Vidofludimus_1D11</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.001639272681314765</v>
+        <v>-0.0001150327883063065</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.4086497497170101</v>
+        <v>-0.0009368315167149217</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-0.009120795717753231</v>
       </c>
       <c r="F23" t="n">
-        <v>0.003224562593026139</v>
+        <v>7.646318016412981e-05</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0002184205991236403</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Nafamostat_1E03</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.0003138602456842556</v>
+          <t>Hydroxyprogesterone_1E02</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>-4.388935522822388e-05</v>
+        <v>0.02389034354594259</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.4905725349161852</v>
+        <v>-0.001639272681314765</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>-0.4086497497170101</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.00484836508583452</v>
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.003224562593026139</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Amuvatinib_1E04</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.0001506751064552752</v>
+          <t>Nafamostat_1E03</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.0003937476611558031</v>
+        <v>0.0003138602456842556</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.225197534748645</v>
+        <v>-4.388935522822388e-05</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-0.4905725349161852</v>
       </c>
       <c r="F25" t="n">
-        <v>4.268801388129541e-06</v>
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.00484836508583452</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Doxycycline_1E05</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>-0.03591504325865693</v>
+          <t>Amuvatinib_1E04</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.00669394246499568</v>
+        <v>0.0001506751064552752</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.01596041633731624</v>
+        <v>-0.0003937476611558031</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-1.225197534748645</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.169164921425752e-06</v>
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4.268801388129541e-06</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Emetine_1E06</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>5.723179985005626e-05</v>
+          <t>Doxycycline_1E05</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>-4.285000633992069e-05</v>
+        <v>-0.03591504325865693</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.7567637645052765</v>
+        <v>-0.00669394246499568</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>-0.01596041633731624</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.001927991794815082</v>
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-1.169164921425752e-06</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Triparanol_1E07</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.0003762377407612107</v>
+          <t>Emetine_1E06</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0.002150184843156285</v>
+        <v>5.723179985005626e-05</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.5264871434165613</v>
+        <v>-4.285000633992069e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-0.7567637645052765</v>
       </c>
       <c r="F28" t="n">
-        <v>2.416795139465171e-05</v>
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.001927991794815082</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Clomipramine_1E08</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-0.04310562850583205</v>
+          <t>Triparanol_1E07</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0.002013899311649085</v>
+        <v>0.0003762377407612107</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.229129530434217</v>
+        <v>0.002150184843156285</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-0.5264871434165613</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0164551318236692</v>
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.416795139465171e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Sofosbuvir_1E09</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-0</v>
+          <t>Clomipramine_1E08</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>9.128907744236589e-05</v>
+        <v>-0.04310562850583205</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.6678630382845386</v>
+        <v>0.002013899311649085</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.005787502626787649</v>
+        <v>-0.229129530434217</v>
       </c>
       <c r="F30" t="n">
-        <v>5.217018199605947e-05</v>
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0164551318236692</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Camostat_1E10</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>5.3454145654415e-05</v>
+          <t>Sofosbuvir_1E09</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01167246060379187</v>
+        <v>-0</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.8236633919679754</v>
+        <v>9.128907744236589e-05</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-0.6678630382845386</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.001717353895277988</v>
+        <v>-0.005787502626787649</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5.217018199605947e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>SMN-C3_1E11</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>1.229087601990649e-05</v>
+          <t>Camostat_1E10</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0004496267260369959</v>
+        <v>5.3454145654415e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1372532394243413</v>
+        <v>0.01167246060379187</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>-0.8236633919679754</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.0002529950486214143</v>
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.001717353895277988</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Valsartan_1F02</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.0005800922007179196</v>
+          <t>SMN-C3_1E11</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.0007816448210068121</v>
+        <v>1.229087601990649e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.4636104928981846</v>
+        <v>0.0004496267260369959</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.02133725242412767</v>
+        <v>-0.1372532394243413</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.07858729655225093</v>
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0.0002529950486214143</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Amiodarone_1F03</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-0.01514975985258695</v>
+          <t>Valsartan_1F02</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.002114249705661</v>
+        <v>0.0005800922007179196</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.09982699416992878</v>
+        <v>-0.0007816448210068121</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.07549690636744349</v>
+        <v>-0.4636104928981846</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.190402297288812</v>
+        <v>-0.02133725242412767</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.07858729655225093</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Cyclosporine_1F04</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>-0.04328827974992478</v>
+          <t>Amiodarone_1F03</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.180544376781798</v>
+        <v>-0.01514975985258695</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.004304182474924902</v>
+        <v>-1.002114249705661</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-0.09982699416992878</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.08748778056039846</v>
+        <v>-0.07549690636744349</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.190402297288812</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Ivermectin_1F05</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>-1.120906725823226</v>
+          <t>Cyclosporine_1F04</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>-2.262194082803012</v>
+        <v>-0.04328827974992478</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0006246551286695553</v>
+        <v>-0.180544376781798</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.02880035914937033</v>
+        <v>-0.004304182474924902</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.579319004448991</v>
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-0.08748778056039846</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Indomethacin_1F06</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>-0.01450796300419979</v>
+          <t>Ivermectin_1F05</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>5.01542702952109e-06</v>
+        <v>-1.120906725823226</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.03687313954323811</v>
+        <v>-2.262194082803012</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.0006246551286695553</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.01255215988740369</v>
+        <v>-0.02880035914937033</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.579319004448991</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Captopril_1F07</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>-0.01109545510318338</v>
+          <t>Indomethacin_1F06</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0001483007569225562</v>
+        <v>-0.01450796300419979</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.0228696880044606</v>
+        <v>5.01542702952109e-06</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-0.03687313954323811</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.09808765717504088</v>
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.01255215988740369</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Sorafenib_1F09</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>-0.4359520236811004</v>
+          <t>Captopril_1F07</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.9693952217188088</v>
+        <v>-0.01109545510318338</v>
       </c>
       <c r="D39" t="n">
-        <v>-4.699782238209695</v>
+        <v>0.0001483007569225562</v>
       </c>
       <c r="E39" t="n">
-        <v>-64.77831709713615</v>
+        <v>-0.0228696880044606</v>
       </c>
       <c r="F39" t="n">
-        <v>-6.200240599757466</v>
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0.09808765717504088</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ABT 239_1F10</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>6.016818013331218e-06</v>
+          <t>Sorafenib_1F09</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.9478904068602846</v>
+        <v>-0.503637936586443</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.002623762578274639</v>
+        <v>-1.583730584511327</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-6.631458249289855</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.01091572925508376</v>
+        <v>-84.33020784426625</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-8.038214187911732</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>Hydroxychloroquine_1F11</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>-0.0005169246754279981</v>
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.005389984834633879</v>
+        <v>-0.03570913020151389</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.4050445463171523</v>
+        <v>-0.01586598126389473</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>0.0006108210053495166</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.4567536054292628</v>
+        <v>-0.9328289469397607</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.5851276125539412</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Ribavirin_1F08</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>-0.02187896013601434</v>
+          <t>ABT 239_1F10</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.08224747671292022</v>
+        <v>6.016818013331218e-06</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.06574272840602731</v>
+        <v>-0.9478904068602846</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>-0.002623762578274639</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.3790928586962699</v>
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-0.01091572925508376</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Benztropine_1G02</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>-0.005883849689079147</v>
+          <t>Hydroxychloroquine_1F11</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.517257453699393</v>
+        <v>-0.0005169246754279981</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.00045968098338258</v>
+        <v>-0.005389984834633879</v>
       </c>
       <c r="E43" t="n">
-        <v>-7.030674111154705e-05</v>
+        <v>-0.4050445463171523</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.001898162568597859</v>
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-0.4567536054292628</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Manidipine_1G03</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>-0.1613901825926837</v>
+          <t>Ribavirin_1F08</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>-15.01918122488402</v>
+        <v>-0.02187896013601434</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.477558935095184</v>
+        <v>-0.08224747671292022</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.02145177457174767</v>
+        <v>-0.06574272840602731</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.1959119854934394</v>
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-0.3790928586962699</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Almitrine_1G04</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>-0.4802453652524255</v>
+          <t>Benztropine_1G02</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.4496534731494342</v>
+        <v>-0.005883849689079147</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>-1.517257453699393</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>-0.00045968098338258</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.001977278841931089</v>
+        <v>-7.030674111154705e-05</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-0.001898162568597859</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Nitazoxanide_1G05</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0</v>
+          <t>Manidipine_1G03</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.736700613229168</v>
+        <v>-0.1697183087645942</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.005654215272489442</v>
+        <v>-20.20959463716347</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0003154073792445307</v>
+        <v>-2.427474036223909</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.06895898690025935</v>
+        <v>-0.0130872499259546</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-0.320701609963661</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>MK-2206_1G06</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>-0.04089697922486538</v>
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.1059451987224035</v>
+        <v>-0.00659092269117545</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.0001391653803714053</v>
+        <v>-7.305857677697934</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.01177387445386042</v>
+        <v>-0.03037448160554494</v>
       </c>
       <c r="F47" t="n">
-        <v>-3.020852179675095e-05</v>
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.001258738186989201</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Terconazole_1G07</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>-0.0001233889085577555</v>
+          <t>Almitrine_1G04</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.8379202826846701</v>
+        <v>-0.4802453652524255</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>-0.4496534731494342</v>
       </c>
       <c r="E48" t="n">
-        <v>-8.335717964392144e-05</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.04184384696128613</v>
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.001977278841931089</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Midostaurin_1G08</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>-0.2080971257454299</v>
+          <t>Nitazoxanide_1G05</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>-2.615387061767509</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.01647736270136337</v>
+        <v>-1.736700613229168</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.03098878945192113</v>
+        <v>-0.005654215272489442</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.001118701521578511</v>
+        <v>0.0003154073792445307</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.06895898690025935</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Ferroquine_1G09</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>-8.852088006384345e-06</v>
+          <t>MK-2206_1G06</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.1343218182431567</v>
+        <v>-0.04089697922486538</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.004010926287047754</v>
+        <v>-0.1059451987224035</v>
       </c>
       <c r="E50" t="n">
-        <v>-4.913394958299049e-05</v>
+        <v>-0.0001391653803714053</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.0130069840448102</v>
+        <v>-0.01177387445386042</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-3.020852179675095e-05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>SAX-187_1G10</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0.01381723551935739</v>
+          <t>Terconazole_1G07</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.1549453032153794</v>
+        <v>-2.029174301621928e-05</v>
       </c>
       <c r="D51" t="n">
-        <v>0.03172171959780894</v>
+        <v>-0.7118037335446411</v>
       </c>
       <c r="E51" t="n">
-        <v>-0</v>
+        <v>8.999764604713204e-05</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.001266949160860707</v>
+        <v>-0.000181537015342163</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.1870069295527621</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Abemaciclib_1G11</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0.01293330799648484</v>
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.003594722930949553</v>
+        <v>-0.003627530060690249</v>
       </c>
       <c r="D52" t="n">
-        <v>0.02659958487584351</v>
+        <v>-0.5308018647408642</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>-0.0002414313541121735</v>
       </c>
       <c r="F52" t="n">
-        <v>-0</v>
+        <v>-0.01038617755933754</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.005950206647764752</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Pevonedistat_1H02</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.0001203028938225401</v>
+          <t>Midostaurin_1G08</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.004443889726147343</v>
+        <v>-0.2461265795860265</v>
       </c>
       <c r="D53" t="n">
-        <v>-1.846600896053413</v>
+        <v>-4.458164146696879</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>-0.03839423315681895</v>
       </c>
       <c r="F53" t="n">
-        <v>0.00100902999863248</v>
+        <v>-0.01927263597252408</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-0.002493400961881144</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Tetrandrine_1H03</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>-2.366439857756826e-07</v>
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.02615328788030289</v>
+        <v>-0.001973660998259941</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.586630597828727</v>
+        <v>-0.293147242772073</v>
       </c>
       <c r="E54" t="n">
-        <v>0.003867859816333642</v>
+        <v>0.004152139193771979</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.003162639623204422</v>
+        <v>-0.1289830210860322</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Lopinavir_1H04</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>-0.0005544437034425856</v>
+          <t>Ferroquine_1G09</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.01752054286031205</v>
+        <v>-8.852088006384345e-06</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.1452389307750346</v>
+        <v>-0.1343218182431567</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>-0.004010926287047754</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.0007686577862439035</v>
+        <v>-4.913394958299049e-05</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-0.0130069840448102</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Imatinib_1H05</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.01288808089485439</v>
+          <t>SAX-187_1G10</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.00889937515543884</v>
+        <v>0.01381723551935739</v>
       </c>
       <c r="D56" t="n">
-        <v>-3.184952729373903</v>
+        <v>-0.1549453032153794</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>0.03172171959780894</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1056631065025864</v>
+        <v>-0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0.001266949160860707</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Fluphenazine_1H06</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.01092502355725251</v>
+          <t>Abemaciclib_1G11</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0002064112023905973</v>
+        <v>0.01293330799648484</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.05093901221003286</v>
+        <v>-0.003594722930949553</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>0.02659958487584351</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Haloperidol_1H07</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0.008013529529412127</v>
+          <t>Pevonedistat_1H02</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.007595308192077652</v>
+        <v>0.0001203028938225401</v>
       </c>
       <c r="D58" t="n">
-        <v>0.009655521743948179</v>
+        <v>-0.004443889726147343</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>-1.846600896053413</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.01068063613736982</v>
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.00100902999863248</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Ozanimod_1H08</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0.0003486209948597056</v>
+          <t>Tetrandrine_1H03</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.01830255828982467</v>
+        <v>-2.366439857756826e-07</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.1843150291614415</v>
+        <v>-0.02615328788030289</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>-1.586630597828727</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.02193790571423012</v>
+        <v>0.003867859816333642</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-0.003162639623204422</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Loratidine_1H09</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>-0.0003262375911907601</v>
+          <t>Lopinavir_1H04</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>0.01735275270493623</v>
+        <v>-0.0005544437034425856</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.2564756201126209</v>
+        <v>-0.01752054286031205</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>-0.1452389307750346</v>
       </c>
       <c r="F60" t="n">
-        <v>0.000286184591269939</v>
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-0.0007686577862439035</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Posaconazole_1H10</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0.0002572110957969929</v>
+          <t>Imatinib_1H05</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>0.005860778967510335</v>
+        <v>0.01288808089485439</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0002888074089248587</v>
+        <v>-0.00889937515543884</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>-3.184952729373903</v>
       </c>
       <c r="F61" t="n">
-        <v>0.02487844273368694</v>
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.1056631065025864</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Pyronaridine_1H11</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>0</v>
+          <t>Fluphenazine_1H06</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>-0</v>
+        <v>0.01092502355725251</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.1143231023108758</v>
+        <v>0.0002064112023905973</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>-0.05093901221003286</v>
       </c>
       <c r="F62" t="n">
-        <v>0.002592538336555202</v>
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Fluspirilene_2A02</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>-0.08780050228962531</v>
+          <t>Haloperidol_1H07</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>-2.1935079347806</v>
+        <v>0.008013529529412127</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.005301449959597212</v>
+        <v>-0.007595308192077652</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>0.009655521743948179</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0003867207168840642</v>
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.01068063613736982</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Tetracycline_2A03</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>-0.008747500238279316</v>
+          <t>Ozanimod_1H08</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.3028822065794121</v>
+        <v>0.0003486209948597056</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.02365576668284706</v>
+        <v>-0.01830255828982467</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>-0.1843150291614415</v>
       </c>
       <c r="F64" t="n">
-        <v>-0</v>
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.02193790571423012</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Toremifene_2A04</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>-0.01629231011642172</v>
+          <t>Loratidine_1H09</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.4047646142040554</v>
+        <v>-0.0003262375911907601</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.01917646285459316</v>
+        <v>0.01735275270493623</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>-0.2564756201126209</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.05174050675104238</v>
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.000286184591269939</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Doxorubicin_2A05</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>-0.00436031056185369</v>
+          <t>Posaconazole_1H10</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>-1.155489621047048</v>
+        <v>0.0002572110957969929</v>
       </c>
       <c r="D66" t="n">
-        <v>-8.687163353673091</v>
+        <v>0.005860778967510335</v>
       </c>
       <c r="E66" t="n">
-        <v>0.01015926227839679</v>
+        <v>0.0002888074089248587</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.0008707067901770806</v>
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.02487844273368694</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Rapamycin_2A06</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>-0.4833128764550472</v>
+          <t>Pyronaridine_1H11</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>-1.155075627899522</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.1833039676932826</v>
+        <v>-0</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>-0.1143231023108758</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.007647360855374833</v>
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.002592538336555202</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Ponatinib_2A07</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>-2.149685040359651</v>
+          <t>Fluspirilene_2A02</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.3119140063689745</v>
+        <v>-0.08780050228962531</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.09749185583624889</v>
+        <v>-2.1935079347806</v>
       </c>
       <c r="E68" t="n">
-        <v>-3.478067678375949</v>
+        <v>-0.005301449959597212</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.974206647707491</v>
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0003867207168840642</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Migalastat_2A08</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0.01381687540506075</v>
+          <t>Tetracycline_2A03</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.03236993413903068</v>
+        <v>-0.008747500238279316</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.2316345156473432</v>
+        <v>-0.3028822065794121</v>
       </c>
       <c r="E69" t="n">
-        <v>0.03150452044989754</v>
+        <v>-0.02365576668284706</v>
       </c>
       <c r="F69" t="n">
-        <v>0.05845415757035071</v>
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Berbamine_2A09</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>-0.0148129563801854</v>
+          <t>Toremifene_2A04</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.03114390015111188</v>
+        <v>-0.01629231011642172</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.2228522297075267</v>
+        <v>-0.4047646142040554</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>-0.01917646285459316</v>
       </c>
       <c r="F70" t="n">
-        <v>0.001302286638754586</v>
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-0.05174050675104238</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Metformin_2A10</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0.003250359214325374</v>
+          <t>Doxorubicin_2A05</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.03357040908241162</v>
+        <v>-0.00436031056185369</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.006730229532465513</v>
+        <v>-1.155489621047048</v>
       </c>
       <c r="E71" t="n">
-        <v>0.04171485392809234</v>
+        <v>-8.687163353673091</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.002987208737648782</v>
+        <v>0.01015926227839679</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-0.0008707067901770806</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Fluconazole_2A11</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>6.66115934975533e-07</v>
+          <t>Rapamycin_2A06</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.00184523555281666</v>
+        <v>-0.4833128764550472</v>
       </c>
       <c r="D72" t="n">
-        <v>0.01566890245016668</v>
+        <v>-1.155075627899522</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>-0.1833039676932826</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.0005464830503734983</v>
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-0.007647360855374833</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Lumefantrine_2B02</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>1.753021360163055e-07</v>
+          <t>Ponatinib_2A07</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.01497211011752094</v>
+        <v>-2.440756664858068</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.0008529393700148711</v>
+        <v>-0.3689802097540144</v>
       </c>
       <c r="E73" t="n">
-        <v>-0</v>
+        <v>-0.1266023554647217</v>
       </c>
       <c r="F73" t="n">
-        <v>0.132793909519212</v>
+        <v>-4.41341676466778</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-4.113277520377936</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Anidulafungin_2B03</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>-0.00675795488190928</v>
+      <c r="A74" s="1" t="n"/>
+      <c r="B74" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.0120825618964805</v>
+        <v>-1.154661260406051</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01327332375593123</v>
+        <v>-0.08162330794182469</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>0.8031885503989343</v>
       </c>
       <c r="F74" t="n">
-        <v>0.01135458448139324</v>
+        <v>-0.878221083940556</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2.258981137596917e-05</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Hanfangchin B_2B04</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>-0.0001069334969467675</v>
+          <t>Migalastat_2A08</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.004324609930092126</v>
+        <v>0.01381687540506075</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.005486630050543818</v>
+        <v>-0.03236993413903068</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>-0.2316345156473432</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0005157088506762766</v>
+        <v>0.03150452044989754</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.05845415757035071</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Entacapone_2B05</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>-0.001780121285518395</v>
+          <t>Berbamine_2A09</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.5550682636982174</v>
+        <v>-0.0148129563801854</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.0007973837979717076</v>
+        <v>-0.03114390015111188</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.0009068890014438916</v>
+        <v>-0.2228522297075267</v>
       </c>
       <c r="F76" t="n">
-        <v>-0</v>
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.001302286638754586</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Thiethylperazine_2B06</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>-0.01151161738737447</v>
+          <t>Metformin_2A10</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.01221194356527773</v>
+        <v>0.003250359214325374</v>
       </c>
       <c r="D77" t="n">
-        <v>0.002983977211640909</v>
+        <v>-0.03357040908241162</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.003934155761920269</v>
+        <v>-0.006730229532465513</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.01906269426109231</v>
+        <v>0.04171485392809234</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-0.002987208737648782</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Tacrolimus_2B07</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>-0.004359302440145791</v>
+          <t>Fluconazole_2A11</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.8550210320733875</v>
+        <v>6.66115934975533e-07</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9947633369883314</v>
+        <v>-0.00184523555281666</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>0.01566890245016668</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.003126848056996111</v>
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-0.0005464830503734983</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Dabrafenib_2B08</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>-0.0009109853556919804</v>
+          <t>Lumefantrine_2B02</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0001309443624443342</v>
+        <v>1.753021360163055e-07</v>
       </c>
       <c r="D79" t="n">
-        <v>0.001684916930772016</v>
+        <v>-0.01497211011752094</v>
       </c>
       <c r="E79" t="n">
+        <v>-0.0008529393700148711</v>
+      </c>
+      <c r="F79" t="n">
         <v>-0</v>
       </c>
-      <c r="F79" t="n">
-        <v>0.3123269721713793</v>
+      <c r="G79" t="n">
+        <v>0.132793909519212</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Dapivirine_2B09</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>-0.0001647789726422028</v>
+          <t>Anidulafungin_2B03</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>-0.00675795488190928</v>
       </c>
       <c r="D80" t="n">
-        <v>0.00367718825924811</v>
+        <v>-0.0120825618964805</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>-0.01327332375593123</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08315070260123518</v>
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.01135458448139324</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Mycophenolic acid_2B10</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>-1.342356323845956e-06</v>
+          <t>Hanfangchin B_2B04</t>
+        </is>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0004354046761392877</v>
+        <v>-0.0001069334969467675</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1627500392681133</v>
+        <v>-0.004324609930092126</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.003934155761920269</v>
+        <v>-0.005486630050543818</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.0003571739445244512</v>
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0005157088506762766</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Tenofovir_2B11</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>-0.001937530784237604</v>
+          <t>Entacapone_2B05</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0.002299306222735665</v>
+        <v>-0.001780121285518395</v>
       </c>
       <c r="D82" t="n">
-        <v>0.05314130528218049</v>
+        <v>-0.5550682636982174</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>-0.0007973837979717076</v>
       </c>
       <c r="F82" t="n">
-        <v>0.003881633886282225</v>
+        <v>-0.0009068890014438916</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Silmitasertib_2C02</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>-0.002143017279897974</v>
+          <t>Thiethylperazine_2B06</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>-0.01151161738737447</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.003822377664488427</v>
+        <v>-0.01221194356527773</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.008293833409558951</v>
+        <v>0.002983977211640909</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.04551898863404216</v>
+        <v>-0.003934155761920269</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-0.01906269426109231</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Oxyclozanide_2C03</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>-0.04244270310088927</v>
+          <t>Tacrolimus_2B07</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.09146560502833169</v>
+        <v>-0.003411829265739036</v>
       </c>
       <c r="D84" t="n">
-        <v>0.08027727366723471</v>
+        <v>-0.8967903323722074</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>1.35870286633703</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.02851741193631409</v>
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-0.01017181594727638</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>Digitoxin_2C04</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>-0.002170511887542459</v>
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.1419461199444876</v>
+        <v>-0.008486916394653037</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.0006046605798609068</v>
+        <v>-5.558278320667502</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>5.76626864764324</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.0258331318321287</v>
+        <v>-0.01935079622786667</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.01499248598983067</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Chlormidazole_2C05</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>-0.03826502486681538</v>
+          <t>Dabrafenib_2B08</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.1939539695956104</v>
+        <v>-0.0009109853556919804</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.04331287032068973</v>
+        <v>0.0001309443624443342</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>0.001684916930772016</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.002931611936140646</v>
+        <v>-0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.3123269721713793</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Proscillaridin_2C06</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>-0.00223158973011634</v>
+          <t>Dapivirine_2B09</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.02552906402415491</v>
+        <v>-0.0001647789726422028</v>
       </c>
       <c r="D87" t="n">
-        <v>0.000362841816328267</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>0.00367718825924811</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.000680352918882997</v>
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.08315070260123518</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Dutacatib_2C07</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>-0.07051172692809732</v>
+          <t>Mycophenolic acid_2B10</t>
+        </is>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.03876882245350169</v>
+        <v>-1.342356323845956e-06</v>
       </c>
       <c r="D88" t="n">
-        <v>0.002188747225324418</v>
+        <v>0.0004354046761392877</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.01258692369231091</v>
+        <v>0.1627500392681133</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.03698022600425366</v>
+        <v>-0.003934155761920269</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-0.0003571739445244512</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>PB 28_2C08</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>-0.08100582811584317</v>
+          <t>Tenofovir_2B11</t>
+        </is>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0005445952160112289</v>
+        <v>-0.001937530784237604</v>
       </c>
       <c r="D89" t="n">
-        <v>3.025384586303805e-05</v>
+        <v>0.002299306222735665</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.002427336003381497</v>
+        <v>0.05314130528218049</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5069738282669044</v>
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.003881633886282225</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Baricitinib_2C09</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>5.251266279202808e-05</v>
+          <t>Silmitasertib_2C02</t>
+        </is>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>1.859325548317998e-06</v>
+        <v>-0.002143017279897974</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.01996911315509029</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.0050645774890155</v>
+        <v>-0.003822377664488427</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.1344181546588024</v>
+        <v>-0.008293833409558951</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-0.04551898863404216</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Eszopiclone_2C10</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>-0.0002690960816025533</v>
+          <t>Oxyclozanide_2C03</t>
+        </is>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0002420240680752736</v>
+        <v>-0.04244270310088927</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.001616792261473716</v>
+        <v>-0.09146560502833169</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.002373324694137696</v>
+        <v>0.08027727366723471</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.006237496298565981</v>
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-0.02851741193631409</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>(+)-Mefloquine_2C11</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>-0.004600714285245559</v>
+          <t>Digitoxin_2C04</t>
+        </is>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0001548206352087396</v>
+        <v>-0.002170511887542459</v>
       </c>
       <c r="D92" t="n">
-        <v>0.03030853579747706</v>
+        <v>-0.1419461199444876</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>-0.0006046605798609068</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.00811163368014732</v>
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-0.0258331318321287</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Salinomycin_2D02</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>-0.0005305795364919864</v>
+          <t>Chlormidazole_2C05</t>
+        </is>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.05766499558293588</v>
+        <v>-0.03826502486681538</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0002022760878139845</v>
+        <v>-0.1939539695956104</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.02518085357788141</v>
+        <v>-0.04331287032068973</v>
       </c>
       <c r="F93" t="n">
-        <v>-0</v>
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-0.002931611936140646</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>JQ 1_2D03</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>-0.0002199658836966291</v>
+          <t>Proscillaridin_2C06</t>
+        </is>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.6306816593285225</v>
+        <v>-0.00223158973011634</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.07382923475765331</v>
+        <v>-0.02552906402415491</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.01263495806249274</v>
+        <v>0.000362841816328267</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0001245393841852007</v>
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-0.000680352918882997</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>RVX 208_2D04</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>-0</v>
+          <t>Dutacatib_2C07</t>
+        </is>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.05103058774581314</v>
+        <v>-0.07051172692809732</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.02441989564470315</v>
+        <v>-0.03876882245350169</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>0.002188747225324418</v>
       </c>
       <c r="F95" t="n">
-        <v>0.01444665834695115</v>
+        <v>-0.01258692369231091</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-0.03698022600425366</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Osimertinib_2D05</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>-0.002186730730934879</v>
+          <t>PB 28_2C08</t>
+        </is>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.6884670582689637</v>
+        <v>-0.08100582811584317</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.0001333705700267422</v>
+        <v>0.0005445952160112289</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>3.025384586303805e-05</v>
       </c>
       <c r="F96" t="n">
-        <v>0.00158652668409575</v>
+        <v>-0.002427336003381497</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-0.5069738282669044</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Cloperastine_2D06</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>-7.460441720937677e-05</v>
+          <t>Baricitinib_2C09</t>
+        </is>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>0.001747602984328744</v>
+        <v>5.251266279202808e-05</v>
       </c>
       <c r="D97" t="n">
-        <v>0.001300279641406494</v>
+        <v>1.859325548317998e-06</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.006381825861745606</v>
+        <v>-0.01996911315509029</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.0234293046598511</v>
+        <v>-0.0050645774890155</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-0.1344181546588024</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Clemastine_2D07</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>-6.92439231571468e-05</v>
+          <t>Eszopiclone_2C10</t>
+        </is>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.1300345447695291</v>
+        <v>-0.0002690960816025533</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.01384056419599675</v>
+        <v>0.0002420240680752736</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.004535966169505079</v>
+        <v>-0.001616792261473716</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.02218597850572509</v>
+        <v>-0.002373324694137696</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-0.006237496298565981</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Merimepodib_2D08</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>0.008645882687071829</v>
+          <t>(+)-Mefloquine_2C11</t>
+        </is>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.0286441730318808</v>
+        <v>-0.004600714285245559</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.0253508716205889</v>
+        <v>0.0001548206352087396</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>0.03030853579747706</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.01079574311617413</v>
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-0.00811163368014732</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>E 52862_2D09</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>-0.0001588145238366023</v>
+          <t>Salinomycin_2D02</t>
+        </is>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.02500192654441559</v>
+        <v>-0.0005305795364919864</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.2267035940493152</v>
+        <v>-0.05766499558293588</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.04461121667463584</v>
+        <v>0.0002022760878139845</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.00135759045831641</v>
+        <v>-0.02518085357788141</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Doravirine_2D10</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>0.003102542566248572</v>
+          <t>JQ 1_2D03</t>
+        </is>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.0005637767666107086</v>
+        <v>-0.0002199658836966291</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0002921376288274711</v>
+        <v>-0.6306816593285225</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>-0.07382923475765331</v>
       </c>
       <c r="F101" t="n">
-        <v>0.01233290476759516</v>
+        <v>-0.01263495806249274</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.0001245393841852007</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Cycloheximide_2D11</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>-0.000563513399639039</v>
+          <t>RVX 208_2D04</t>
+        </is>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0.02348058508874186</v>
+        <v>-0</v>
       </c>
       <c r="D102" t="n">
-        <v>0.002154694317637151</v>
+        <v>-0.05103058774581314</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>-0.02441989564470315</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0008093802318703051</v>
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.01444665834695115</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Umifenovir_2E02</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>-0.004253533037420912</v>
+          <t>Osimertinib_2D05</t>
+        </is>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>-0.002186730730934879</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.0062376517140136</v>
+        <v>-0.6884670582689637</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.0001569026011806878</v>
+        <v>-0.0001333705700267422</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.2165878871361599</v>
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.00158652668409575</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>MRT 68601_2E03</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>2.279927511770499e-05</v>
+          <t>Cloperastine_2D06</t>
+        </is>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.0163450439449755</v>
+        <v>-7.460441720937677e-05</v>
       </c>
       <c r="D104" t="n">
-        <v>0.01201558017232257</v>
+        <v>0.001747602984328744</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.01120157563705531</v>
+        <v>0.001300279641406494</v>
       </c>
       <c r="F104" t="n">
-        <v>-0.00974158495303638</v>
+        <v>-0.006381825861745606</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-0.0234293046598511</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>PD 144418_2E04</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>8.788897229218942e-05</v>
+          <t>Clemastine_2D07</t>
+        </is>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>-5.567588994264923e-06</v>
+        <v>-6.92439231571468e-05</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.004078763333197012</v>
+        <v>-0.1300345447695291</v>
       </c>
       <c r="E105" t="n">
-        <v>-4.049102668987393e-05</v>
+        <v>-0.01384056419599675</v>
       </c>
       <c r="F105" t="n">
-        <v>0.001072251364334751</v>
+        <v>-0.004535966169505079</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-0.02218597850572509</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>(RS)-PPCC_2E05</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>-0.0009632941024357875</v>
+          <t>Merimepodib_2D08</t>
+        </is>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.3049586257150181</v>
+        <v>0.008645882687071829</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0110670498860394</v>
+        <v>-0.0286441730318808</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.002817557440140543</v>
+        <v>-0.0253508716205889</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0005659406864997158</v>
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-0.01079574311617413</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>AZ3451_2E06</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>-7.965162537016683e-05</v>
+          <t>E 52862_2D09</t>
+        </is>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>-7.412542453738414e-05</v>
+        <v>-0.0001588145238366023</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.01317236916484517</v>
+        <v>-0.02500192654441559</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.0006900068353367122</v>
+        <v>-0.2267035940493152</v>
       </c>
       <c r="F107" t="n">
-        <v>0.001037847789718263</v>
+        <v>-0.04461121667463584</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-0.00135759045831641</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>ZINC4326719_2E07</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>-0.007208998727782321</v>
+          <t>Doravirine_2D10</t>
+        </is>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>1.5686272880221e-05</v>
+        <v>0.003102542566248572</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0001135993223272745</v>
+        <v>-0.0005637767666107086</v>
       </c>
       <c r="E108" t="n">
-        <v>-0.00587777344773638</v>
+        <v>0.0002921376288274711</v>
       </c>
       <c r="F108" t="n">
-        <v>-0.04811676525051187</v>
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.01233290476759516</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Losartan_2E08</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>-0.00999538902293433</v>
+          <t>Cycloheximide_2D11</t>
+        </is>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>-0</v>
+        <v>-0.000563513399639039</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0101806317470541</v>
+        <v>0.02348058508874186</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.03142549580561978</v>
+        <v>0.002154694317637151</v>
       </c>
       <c r="F109" t="n">
-        <v>-0.020413432804965</v>
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.0008093802318703051</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Nifedipine_2E09</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>0.0001193197439546687</v>
+          <t>Umifenovir_2E02</t>
+        </is>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>-7.652728569768424e-05</v>
+        <v>-0.004253533037420912</v>
       </c>
       <c r="D110" t="n">
-        <v>0.05141966442904018</v>
+        <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.06933784683734247</v>
+        <v>-0.0062376517140136</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0004980851066278642</v>
+        <v>-0.0001569026011806878</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-0.2165878871361599</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Anagliptin_2E10</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>-0.0001277218764161138</v>
+          <t>MRT 68601_2E03</t>
+        </is>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.009772712748599366</v>
+        <v>2.279927511770499e-05</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.0008813179931904633</v>
+        <v>-0.0163450439449755</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>0.01201558017232257</v>
       </c>
       <c r="F111" t="n">
-        <v>-0.09018673255355496</v>
+        <v>-0.01120157563705531</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-0.00974158495303638</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Desmethyl ferroquine_2E11</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>-0.01252388495927106</v>
+          <t>PD 144418_2E04</t>
+        </is>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>8.088326844973693e-05</v>
+        <v>8.788897229218942e-05</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0007031900204599595</v>
+        <v>-5.567588994264923e-06</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.000286541171505872</v>
+        <v>-0.004078763333197012</v>
       </c>
       <c r="F112" t="n">
-        <v>0.001445273997271053</v>
+        <v>-4.049102668987393e-05</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.001072251364334751</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>Nebivolol_2F02</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>0.002370499878293737</v>
+          <t>(RS)-PPCC_2E05</t>
+        </is>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.5518752435687694</v>
+        <v>-0.0009632941024357875</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>-0.3049586257150181</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.001073699459982828</v>
+        <v>0.0110670498860394</v>
       </c>
       <c r="F113" t="n">
-        <v>-0</v>
+        <v>-0.002817557440140543</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.0005659406864997158</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Aprepitant_2F03</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>0.0001370347913614589</v>
+          <t>AZ3451_2E06</t>
+        </is>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.3139513508820388</v>
+        <v>-7.965162537016683e-05</v>
       </c>
       <c r="D114" t="n">
-        <v>-1.677853037093208e-05</v>
+        <v>-7.412542453738414e-05</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>-0.01317236916484517</v>
       </c>
       <c r="F114" t="n">
-        <v>-0.1057644762334711</v>
+        <v>-0.0006900068353367122</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.001037847789718263</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Danusertib_2F04</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>0.0009278548417374645</v>
+          <t>ZINC4326719_2E07</t>
+        </is>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.1027706586225306</v>
+        <v>-0.007208998727782321</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.002543212395525387</v>
+        <v>1.5686272880221e-05</v>
       </c>
       <c r="E115" t="n">
-        <v>-0.02270299223716954</v>
+        <v>0.0001135993223272745</v>
       </c>
       <c r="F115" t="n">
-        <v>-0.02375635804130045</v>
+        <v>-0.00587777344773638</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-0.04811676525051187</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Apremilast_2F05</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>0.004999579956157825</v>
+          <t>Losartan_2E08</t>
+        </is>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.5155290437500167</v>
+        <v>-0.00999538902293433</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.2276554154446263</v>
+        <v>-0</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>0.0101806317470541</v>
       </c>
       <c r="F116" t="n">
-        <v>-0.007498613258656686</v>
+        <v>-0.03142549580561978</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-0.020413432804965</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>(-)-Anisomycin_2F06</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>0.01927075520832566</v>
+          <t>Nifedipine_2E09</t>
+        </is>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.1642659801790527</v>
+        <v>0.0001193197439546687</v>
       </c>
       <c r="D117" t="n">
-        <v>-5.203268826489142e-05</v>
+        <v>-7.652728569768424e-05</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.07961770607122948</v>
+        <v>0.05141966442904018</v>
       </c>
       <c r="F117" t="n">
-        <v>-0.01555931374387391</v>
+        <v>-0.06933784683734247</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.0004980851066278642</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Idelalisib_2F07</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>-1.909252807006743e-05</v>
+          <t>Anagliptin_2E10</t>
+        </is>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.02909998295536576</v>
+        <v>-0.0001277218764161138</v>
       </c>
       <c r="D118" t="n">
-        <v>6.88060119259837e-05</v>
+        <v>-0.009772712748599366</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>-0.0008813179931904633</v>
       </c>
       <c r="F118" t="n">
-        <v>-0.1008756241160554</v>
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-0.09018673255355496</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Darifenacin_2F08</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>0.01105506298723194</v>
+          <t>Desmethyl ferroquine_2E11</t>
+        </is>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.08259137462433422</v>
+        <v>-0.01252388495927106</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0005603127534480285</v>
+        <v>8.088326844973693e-05</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>0.0007031900204599595</v>
       </c>
       <c r="F119" t="n">
-        <v>-0.0257873341482159</v>
+        <v>-0.000286541171505872</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.001445273997271053</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Spectinomycin_2F09</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>-3.058808095781611e-05</v>
+          <t>Nebivolol_2F02</t>
+        </is>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.02189495946321211</v>
+        <v>0.002370499878293737</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.05912835128170023</v>
+        <v>-0.5518752435687694</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>-6.14910567722207e-05</v>
+        <v>-0.001073699459982828</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Oxatomide_2F10</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>-1.617990615730213e-05</v>
+          <t>Aprepitant_2F03</t>
+        </is>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.04031081790100492</v>
+        <v>0.0001370347913614589</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0005804910106984183</v>
+        <v>-0.3139513508820388</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>-1.677853037093208e-05</v>
       </c>
       <c r="F121" t="n">
-        <v>-1.284036742264754e-05</v>
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-0.1057644762334711</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Promethazine_2F11</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>0.00612603310505861</v>
+          <t>Danusertib_2F04</t>
+        </is>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.01854481013899089</v>
+        <v>0.0009278548417374645</v>
       </c>
       <c r="D122" t="n">
-        <v>0.002304614352153158</v>
+        <v>-0.1027706586225306</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>-0.002543212395525387</v>
       </c>
       <c r="F122" t="n">
-        <v>-0.002236861676161203</v>
+        <v>-0.02270299223716954</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-0.02375635804130045</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Veliparib_2G02</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>-4.515616605446682e-06</v>
+          <t>Apremilast_2F05</t>
+        </is>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.04347705251883462</v>
+        <v>0.004999579956157825</v>
       </c>
       <c r="D123" t="n">
-        <v>0.009970885663590461</v>
+        <v>-0.5155290437500167</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>-0.2276554154446263</v>
       </c>
       <c r="F123" t="n">
-        <v>0.03690192777051806</v>
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-0.007498613258656686</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Celecoxib_2G03</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>-0.03885279378687388</v>
+          <t>(-)-Anisomycin_2F06</t>
+        </is>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.1660190924952355</v>
+        <v>0.01927075520832566</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.001169855583272558</v>
+        <v>-0.1642659801790527</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>-5.203268826489142e-05</v>
       </c>
       <c r="F124" t="n">
-        <v>0.000177417669945201</v>
+        <v>-0.07961770607122948</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-0.01555931374387391</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Cabozantinib_2G04</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>-0.684287181420885</v>
+          <t>Idelalisib_2F07</t>
+        </is>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>-4.043205696954895</v>
+        <v>-1.909252807006743e-05</v>
       </c>
       <c r="D125" t="n">
-        <v>-1.548181023340644</v>
+        <v>-0.02909998295536576</v>
       </c>
       <c r="E125" t="n">
-        <v>-273.5078264234957</v>
+        <v>6.88060119259837e-05</v>
       </c>
       <c r="F125" t="n">
-        <v>-1.902681175340336</v>
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-0.1008756241160554</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Selumetinib_2G05</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>-0.0001347304490773045</v>
+          <t>Darifenacin_2F08</t>
+        </is>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.0826548989742894</v>
+        <v>0.01105506298723194</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.001183282036621798</v>
+        <v>-0.08259137462433422</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>0.0005603127534480285</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-0.0257873341482159</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Bortezomib_2G06</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>0</v>
+          <t>Spectinomycin_2F09</t>
+        </is>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.009945711315579099</v>
+        <v>-3.058808095781611e-05</v>
       </c>
       <c r="D127" t="n">
-        <v>-8.670111303180116e-05</v>
+        <v>-0.02189495946321211</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>-0.05912835128170023</v>
       </c>
       <c r="F127" t="n">
-        <v>-0.01895735326457465</v>
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-6.14910567722207e-05</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Pimozide_2G07</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>-2.9229745986096</v>
+          <t>Oxatomide_2F10</t>
+        </is>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>-6.768232386918842</v>
+        <v>-1.617990615730213e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>-5.729003051430981</v>
+        <v>-0.04031081790100492</v>
       </c>
       <c r="E128" t="n">
-        <v>-0.02712039686443824</v>
+        <v>0.0005804910106984183</v>
       </c>
       <c r="F128" t="n">
-        <v>-1.296893337993898</v>
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-1.284036742264754e-05</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Sertindole_2G08</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>-0.0297251479721862</v>
+          <t>Promethazine_2F11</t>
+        </is>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.1713004039104928</v>
+        <v>0.00612603310505861</v>
       </c>
       <c r="D129" t="n">
-        <v>-3.645892736423632e-05</v>
+        <v>-0.01854481013899089</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>0.002304614352153158</v>
       </c>
       <c r="F129" t="n">
-        <v>-0.003745192879869021</v>
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-0.002236861676161203</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Boceprevir_2G09</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>-0.009859731627594903</v>
+          <t>Veliparib_2G02</t>
+        </is>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.01372173782636635</v>
+        <v>-4.515616605446682e-06</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.001113370716529016</v>
+        <v>-0.04347705251883462</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.004453416589114838</v>
+        <v>0.009970885663590461</v>
       </c>
       <c r="F130" t="n">
-        <v>-0.07057019997003072</v>
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.03690192777051806</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Valdecoxib_2G10</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>-0.02952516193975376</v>
+          <t>Celecoxib_2G03</t>
+        </is>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.03010304357280631</v>
+        <v>-0.03885279378687388</v>
       </c>
       <c r="D131" t="n">
-        <v>0.00364512169520807</v>
+        <v>-0.1660190924952355</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>-0.001169855583272558</v>
       </c>
       <c r="F131" t="n">
-        <v>-0.031515319698608</v>
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.000177417669945201</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>Paroxetine_2G11</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>-0.0708505752418926</v>
+          <t>Cabozantinib_2G04</t>
+        </is>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.05390222580357787</v>
+        <v>-0.6665732560812185</v>
       </c>
       <c r="D132" t="n">
-        <v>0.002668456540163803</v>
+        <v>-4.844337803473361</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>-2.104320566789865</v>
       </c>
       <c r="F132" t="n">
-        <v>9.892793816517781e-05</v>
+        <v>-315.4482498999367</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-2.67963280230674</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="inlineStr">
-        <is>
-          <t>Darunavir_2H02</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>-0.02068364248039568</v>
+      <c r="A133" s="1" t="n"/>
+      <c r="B133" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.07061114494120174</v>
+        <v>-0.00896469081497993</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.1196255512655022</v>
+        <v>-0.0006712606942816318</v>
       </c>
       <c r="E133" t="n">
-        <v>-0.0009992421012241994</v>
+        <v>0.4723536183750683</v>
       </c>
       <c r="F133" t="n">
-        <v>-0.001492876551844727</v>
+        <v>-30.74438192267519</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-8.302752586747156</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Brequinar_2H03</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>-0.01370941981724342</v>
+          <t>Selumetinib_2G05</t>
+        </is>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.3834706415649708</v>
+        <v>-0.0001347304490773045</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0005251667492071774</v>
+        <v>-0.0826548989742894</v>
       </c>
       <c r="E134" t="n">
-        <v>0.0004535844650111681</v>
+        <v>-0.001183282036621798</v>
       </c>
       <c r="F134" t="n">
-        <v>-0.05767616485063774</v>
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Delanzomib_2H04</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>-0.05640148494059299</v>
+          <t>Bortezomib_2G06</t>
+        </is>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.0005547961306810978</v>
+        <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>-1.218137528140848</v>
+        <v>-0.009945711315579099</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>-8.670111303180116e-05</v>
       </c>
       <c r="F135" t="n">
-        <v>-0.001055879193874094</v>
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-0.01895735326457465</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Delavirdine_2H05</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>1.642914769658325e-05</v>
+          <t>Pimozide_2G07</t>
+        </is>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.0337456849869592</v>
+        <v>-2.9229745986096</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.7225154940994819</v>
+        <v>-6.768232386918842</v>
       </c>
       <c r="E136" t="n">
-        <v>0.008643512998207432</v>
+        <v>-5.729003051430981</v>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>-0.02712039686443824</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-1.296893337993898</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Indinavir_2H06</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>-0.0006987043170859588</v>
+          <t>Sertindole_2G08</t>
+        </is>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>-6.772805617800906e-05</v>
+        <v>-0.0297251479721862</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.2680602758890176</v>
+        <v>-0.1713004039104928</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>-3.645892736423632e-05</v>
       </c>
       <c r="F137" t="n">
-        <v>-0.02410744564036993</v>
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-0.003745192879869021</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Abacavir_2H07</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>7.159617665089577e-05</v>
+          <t>Boceprevir_2G09</t>
+        </is>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>8.919961942636427e-05</v>
+        <v>-0.009859731627594903</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.005993560708019547</v>
+        <v>-0.01372173782636635</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>-0.001113370716529016</v>
       </c>
       <c r="F138" t="n">
-        <v>-0.1750598493069128</v>
+        <v>-0.004453416589114838</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-0.07057019997003072</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Chlorothiazide_2H08</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>-0.008251884315744263</v>
+          <t>Valdecoxib_2G10</t>
+        </is>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>0.005286093590254897</v>
+        <v>-0.02952516193975376</v>
       </c>
       <c r="D139" t="n">
-        <v>-1.015749006480376</v>
+        <v>-0.03010304357280631</v>
       </c>
       <c r="E139" t="n">
-        <v>-0.003218615048645101</v>
+        <v>0.00364512169520807</v>
       </c>
       <c r="F139" t="n">
-        <v>0.001379688817516899</v>
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-0.031515319698608</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Apixaban_2H09</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>-0.009786094712514036</v>
+          <t>Paroxetine_2G11</t>
+        </is>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.001620142705416456</v>
+        <v>-0.0708505752418926</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.3834526305594455</v>
+        <v>-0.05390222580357787</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>0.002668456540163803</v>
       </c>
       <c r="F140" t="n">
-        <v>0.05886894912909087</v>
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>9.892793816517781e-05</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Naphtoquine_2H10</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>-0.009752056382445471</v>
+          <t>Darunavir_2H02</t>
+        </is>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.009712057964241096</v>
+        <v>-0.02068364248039568</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.3840659274330675</v>
+        <v>-0.07061114494120174</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>-0.1196255512655022</v>
       </c>
       <c r="F141" t="n">
-        <v>-0.7150058507069127</v>
+        <v>-0.0009992421012241994</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-0.001492876551844727</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Piperaquine_2H11</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>-0.02154359473828476</v>
+          <t>Brequinar_2H03</t>
+        </is>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>-1.676462001809456e-05</v>
+        <v>-0.01370941981724342</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.1622557205726184</v>
+        <v>-0.3834706415649708</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>0.0005251667492071774</v>
       </c>
       <c r="F142" t="n">
-        <v>-0.0003386341868849615</v>
+        <v>0.0004535844650111681</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-0.05767616485063774</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Lusutrombopag_1A03</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>0.003823545886664181</v>
+          <t>Delanzomib_2H04</t>
+        </is>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.09296373124128879</v>
+        <v>-0.05640148494059299</v>
       </c>
       <c r="D143" t="n">
-        <v>2.689200963343692e-06</v>
+        <v>-0.0005547961306810978</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>-1.218137528140848</v>
       </c>
       <c r="F143" t="n">
-        <v>4.418792609562435e-05</v>
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-0.001055879193874094</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Bemcentinib_1A04</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>0.001249128134070361</v>
+          <t>Delavirdine_2H05</t>
+        </is>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.009939197099551959</v>
+        <v>1.642914769658325e-05</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.1202394183404051</v>
+        <v>-0.0337456849869592</v>
       </c>
       <c r="E144" t="n">
-        <v>0.008009799831067038</v>
+        <v>-0.7225154940994819</v>
       </c>
       <c r="F144" t="n">
-        <v>-0.001459544997935938</v>
+        <v>0.008643512998207432</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>ONO 5334_1A05</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>0.0214138128182976</v>
+          <t>Indinavir_2H06</t>
+        </is>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.002739225752626516</v>
+        <v>-0.0006987043170859588</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.003438132123979525</v>
+        <v>-6.772805617800906e-05</v>
       </c>
       <c r="E145" t="n">
-        <v>0.004993533204148439</v>
+        <v>-0.2680602758890176</v>
       </c>
       <c r="F145" t="n">
-        <v>-0.0006052699785309347</v>
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-0.02410744564036993</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Remdesivir_1A06</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>3.742079268630392e-06</v>
+          <t>Abacavir_2H07</t>
+        </is>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.01201009607876484</v>
+        <v>7.159617665089577e-05</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.02748954858274527</v>
+        <v>8.919961942636427e-05</v>
       </c>
       <c r="E146" t="n">
-        <v>0.001323993415755714</v>
+        <v>-0.005993560708019547</v>
       </c>
       <c r="F146" t="n">
-        <v>-0.002692649666502411</v>
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-0.1750598493069128</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>N-Desethylamodiaquine_1A07</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>0.002826364305175107</v>
+          <t>Chlorothiazide_2H08</t>
+        </is>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.0001089968344334362</v>
+        <v>-0.008251884315744263</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.3298359610118196</v>
+        <v>0.005286093590254897</v>
       </c>
       <c r="E147" t="n">
-        <v>0.000316690077848327</v>
+        <v>-1.015749006480376</v>
       </c>
       <c r="F147" t="n">
-        <v>3.668200551895776e-05</v>
+        <v>-0.003218615048645101</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.001379688817516899</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Ciclesonide_1A08</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>-0.0004694455682611308</v>
+          <t>Apixaban_2H09</t>
+        </is>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>0.001040815131278621</v>
+        <v>-0.009786094712514036</v>
       </c>
       <c r="D148" t="n">
-        <v>-1.388654174587885</v>
+        <v>-0.001620142705416456</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>-0.3834526305594455</v>
       </c>
       <c r="F148" t="n">
-        <v>0.009044376595219448</v>
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.05886894912909087</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Nelfinavir_1A09</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>0.002309196393840694</v>
+          <t>Naphtoquine_2H10</t>
+        </is>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.0002757735130809323</v>
+        <v>-0.009752056382445471</v>
       </c>
       <c r="D149" t="n">
-        <v>0.0001952097322080058</v>
+        <v>-0.009712057964241096</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>-0.3840659274330675</v>
       </c>
       <c r="F149" t="n">
-        <v>-0.01112269440420296</v>
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-0.7150058507069127</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Ethaverine_1A10</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>-1.536585646456661e-06</v>
+          <t>Piperaquine_2H11</t>
+        </is>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>-9.150917126276499e-05</v>
+        <v>-0.02154359473828476</v>
       </c>
       <c r="D150" t="n">
-        <v>0.01208300069929107</v>
+        <v>-1.676462001809456e-05</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>-0.1622557205726184</v>
       </c>
       <c r="F150" t="n">
-        <v>-0.04816421329211464</v>
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-0.0003386341868849615</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Ritonavir_1A11</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>1.584029282137944e-05</v>
+          <t>Lusutrombopag_1A03</t>
+        </is>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.02512645736907373</v>
+        <v>0.003823545886664181</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.01393578649151755</v>
+        <v>-0.09296373124128879</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>2.689200963343692e-06</v>
       </c>
       <c r="F151" t="n">
-        <v>-0.03765973040492564</v>
+        <v>0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>4.418792609562435e-05</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Chlorpromazine_1B02</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>-3.046509589363699e-05</v>
+          <t>Bemcentinib_1A04</t>
+        </is>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.05342136649664781</v>
+        <v>0.001249128134070361</v>
       </c>
       <c r="D152" t="n">
-        <v>0.01004464892225676</v>
+        <v>-0.009939197099551959</v>
       </c>
       <c r="E152" t="n">
-        <v>0.005296374822113915</v>
+        <v>-0.1202394183404051</v>
       </c>
       <c r="F152" t="n">
-        <v>0.009864551966273418</v>
+        <v>0.008009799831067038</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-0.001459544997935938</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Regorafenib_1B04</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>-0.386286266592311</v>
+          <t>ONO 5334_1A05</t>
+        </is>
+      </c>
+      <c r="B153" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>-2.800623541556301</v>
+        <v>0.0214138128182976</v>
       </c>
       <c r="D153" t="n">
-        <v>-3.227200892015133</v>
+        <v>-0.002739225752626516</v>
       </c>
       <c r="E153" t="n">
-        <v>-99.47570335122528</v>
+        <v>-0.003438132123979525</v>
       </c>
       <c r="F153" t="n">
-        <v>-3.962014323489952</v>
+        <v>0.004993533204148439</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-0.0006052699785309347</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Pexidartanib_1B05</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>-0.04074121400212918</v>
+          <t>Remdesivir_1A06</t>
+        </is>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.2144812166499563</v>
+        <v>3.742079268630392e-06</v>
       </c>
       <c r="D154" t="n">
-        <v>0.00330965920106905</v>
+        <v>-0.01201009607876484</v>
       </c>
       <c r="E154" t="n">
-        <v>-0.05387071595203552</v>
+        <v>-0.02748954858274527</v>
       </c>
       <c r="F154" t="n">
-        <v>-0.0201792403831392</v>
+        <v>0.001323993415755714</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-0.002692649666502411</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Ketoconazole_1B06</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>0.009832671829173242</v>
+          <t>N-Desethylamodiaquine_1A07</t>
+        </is>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>0.0002541800244538781</v>
+        <v>0.002826364305175107</v>
       </c>
       <c r="D155" t="n">
-        <v>5.323310780814859e-05</v>
+        <v>-0.0001089968344334362</v>
       </c>
       <c r="E155" t="n">
-        <v>0.01325479985457089</v>
+        <v>-0.3298359610118196</v>
       </c>
       <c r="F155" t="n">
-        <v>0.000805046211285501</v>
+        <v>0.000316690077848327</v>
+      </c>
+      <c r="G155" t="n">
+        <v>3.668200551895776e-05</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Drotaverine_1B07</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>0.001208030800729271</v>
+          <t>Ciclesonide_1A08</t>
+        </is>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>0.0003212443833210939</v>
+        <v>-0.0004694455682611308</v>
       </c>
       <c r="D156" t="n">
-        <v>9.096452660634352e-05</v>
+        <v>0.001040815131278621</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>-1.388654174587885</v>
       </c>
       <c r="F156" t="n">
-        <v>2.836777018102202e-05</v>
+        <v>0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.009044376595219448</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Verapamil_1B08</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>-0.0009112454656872491</v>
+          <t>Nelfinavir_1A09</t>
+        </is>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>-8.483091521002655e-05</v>
+        <v>0.002309196393840694</v>
       </c>
       <c r="D157" t="n">
-        <v>0.002972405562472186</v>
+        <v>-0.0002757735130809323</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>0.0001952097322080058</v>
       </c>
       <c r="F157" t="n">
-        <v>0.001694249766909358</v>
+        <v>0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-0.01112269440420296</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>R 7112_1B09</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>0.007787244925156487</v>
+          <t>Ethaverine_1A10</t>
+        </is>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>0.00341396785185511</v>
+        <v>-1.536585646456661e-06</v>
       </c>
       <c r="D158" t="n">
-        <v>0.0001372115428484281</v>
+        <v>-9.150917126276499e-05</v>
       </c>
       <c r="E158" t="n">
-        <v>0.01287307141042185</v>
+        <v>0.01208300069929107</v>
       </c>
       <c r="F158" t="n">
-        <v>1.948351898482729e-05</v>
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-0.04816421329211464</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Atazanavir_1B10</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>0.009477267500849141</v>
+          <t>Ritonavir_1A11</t>
+        </is>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>-5.575009830218538e-06</v>
+        <v>1.584029282137944e-05</v>
       </c>
       <c r="D159" t="n">
-        <v>0.02295744449781678</v>
+        <v>-0.02512645736907373</v>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>-0.01393578649151755</v>
       </c>
       <c r="F159" t="n">
-        <v>0.06708885234671733</v>
+        <v>0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-0.03765973040492564</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Ruxolitinib_1B11</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>-0.001105808184765611</v>
+          <t>Chlorpromazine_1B02</t>
+        </is>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.04546339851757362</v>
+        <v>-3.046509589363699e-05</v>
       </c>
       <c r="D160" t="n">
-        <v>3.415549904305485e-05</v>
+        <v>-0.05342136649664781</v>
       </c>
       <c r="E160" t="n">
-        <v>0.00428208043401943</v>
+        <v>0.01004464892225676</v>
       </c>
       <c r="F160" t="n">
-        <v>-0.01162423561218013</v>
+        <v>0.005296374822113915</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.009864551966273418</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Niclosamide_1A02</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>-0.1481280271030555</v>
+          <t>Apilimod_1B03</t>
+        </is>
+      </c>
+      <c r="B161" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.189193592059343</v>
+        <v>-1.140511262429744</v>
       </c>
       <c r="D161" t="n">
-        <v>-0</v>
+        <v>-4.593353845088104</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>-5.427752138771169</v>
       </c>
       <c r="F161" t="n">
-        <v>0.001517399310411962</v>
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-1.176414647191162</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="inlineStr">
-        <is>
-          <t>Apilimod_1B03</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>-0.2789838767779769</v>
+      <c r="A162" s="1" t="n"/>
+      <c r="B162" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C162" t="n">
-        <v>-2.104048023014777</v>
+        <v>-0.2227751751471123</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.01726005212965862</v>
+        <v>-2.468840073834594</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>-0.03857592326218828</v>
       </c>
       <c r="F162" t="n">
-        <v>0.0007285478687470631</v>
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.0007041562673777273</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
+          <t>Regorafenib_1B04</t>
+        </is>
+      </c>
+      <c r="B163" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-0.386286266592311</v>
+      </c>
+      <c r="D163" t="n">
+        <v>-2.800623541556301</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-3.227200892015133</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-99.47570335122528</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-3.962014323489952</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>Pexidartanib_1B05</t>
+        </is>
+      </c>
+      <c r="B164" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-0.04074121400212918</v>
+      </c>
+      <c r="D164" t="n">
+        <v>-0.2144812166499563</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.00330965920106905</v>
+      </c>
+      <c r="F164" t="n">
+        <v>-0.05387071595203552</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-0.0201792403831392</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>Ketoconazole_1B06</t>
+        </is>
+      </c>
+      <c r="B165" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.009832671829173242</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.0002541800244538781</v>
+      </c>
+      <c r="E165" t="n">
+        <v>5.323310780814859e-05</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.01325479985457089</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.000805046211285501</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>Drotaverine_1B07</t>
+        </is>
+      </c>
+      <c r="B166" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.001208030800729271</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.0003212443833210939</v>
+      </c>
+      <c r="E166" t="n">
+        <v>9.096452660634352e-05</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>2.836777018102202e-05</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>Verapamil_1B08</t>
+        </is>
+      </c>
+      <c r="B167" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>-0.0009112454656872491</v>
+      </c>
+      <c r="D167" t="n">
+        <v>-8.483091521002655e-05</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.002972405562472186</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.001694249766909358</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>R 7112_1B09</t>
+        </is>
+      </c>
+      <c r="B168" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.007787244925156487</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.00341396785185511</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.0001372115428484281</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.01287307141042185</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1.948351898482729e-05</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>Atazanavir_1B10</t>
+        </is>
+      </c>
+      <c r="B169" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.009477267500849141</v>
+      </c>
+      <c r="D169" t="n">
+        <v>-5.575009830218538e-06</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.02295744449781678</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.06708885234671733</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>Ruxolitinib_1B11</t>
+        </is>
+      </c>
+      <c r="B170" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" t="n">
+        <v>-0.001105808184765611</v>
+      </c>
+      <c r="D170" t="n">
+        <v>-0.04546339851757362</v>
+      </c>
+      <c r="E170" t="n">
+        <v>3.415549904305485e-05</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.00428208043401943</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-0.01162423561218013</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>Niclosamide_1A02</t>
+        </is>
+      </c>
+      <c r="B171" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C171" t="n">
+        <v>-0.1481280271030555</v>
+      </c>
+      <c r="D171" t="n">
+        <v>-0.189193592059343</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.001517399310411962</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
           <t>Molnupiravir</t>
         </is>
       </c>
-      <c r="B163" t="n">
+      <c r="B172" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C172" t="n">
+        <v>-0.003440259359946399</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.633006307506202e-05</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-0.02417936285615402</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-0.08454130436667202</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n"/>
+      <c r="B173" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C173" t="n">
         <v>-0.007476622700485947</v>
       </c>
-      <c r="C163" t="n">
+      <c r="D173" t="n">
         <v>-0.2414447382321995</v>
       </c>
-      <c r="D163" t="n">
+      <c r="E173" t="n">
         <v>-0.06503422619219518</v>
       </c>
-      <c r="E163" t="n">
-        <v>0</v>
-      </c>
-      <c r="F163" t="n">
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G173" t="n">
         <v>0.004766068251292205</v>
       </c>
     </row>
+    <row r="174">
+      <c r="A174" s="1" t="n"/>
+      <c r="B174" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C174" t="n">
+        <v>-0.01034158173024194</v>
+      </c>
+      <c r="D174" t="n">
+        <v>-0.01572542972582679</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-0.05237858392558947</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-0.009483483401908804</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n"/>
+      <c r="B175" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C175" t="n">
+        <v>-0.00495341477258282</v>
+      </c>
+      <c r="D175" t="n">
+        <v>-0.009146380526588047</v>
+      </c>
+      <c r="E175" t="n">
+        <v>-0.003284151251382367</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-0.02775878458946241</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A172:A175"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>